--- a/2차_가공/한국과학기술원 22년 1학기 2차 가공 완료.xlsx
+++ b/2차_가공/한국과학기술원 22년 1학기 2차 가공 완료.xlsx
@@ -5034,7 +5034,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>382</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>385</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>780</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>781</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>782</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>783</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>784</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>785</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>786</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>787</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>788</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>1089</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>1090</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>1091</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>1092</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>1093</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>1094</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>1095</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>1096</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>1097</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>1098</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>1099</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>1100</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>1101</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>1102</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>1103</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>1104</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>1105</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>1106</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>1107</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>1108</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>1109</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>1110</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>1111</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>1112</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>1113</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>1114</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>1115</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>1116</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>1117</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>1118</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>1119</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>1178</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>1179</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>1180</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>1181</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>1182</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>1183</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>1184</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>1185</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>1186</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>1187</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>1188</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>1189</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>1190</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>1191</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>1192</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>1193</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>1194</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>1195</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>1196</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>1197</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>1198</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>1199</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>1200</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>1200</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>1201</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -7701,7 +7701,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>1262</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>1272</v>
+        <v>98</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>1273</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>1274</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>1275</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>1276</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>1278</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>1279</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>1280</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>1281</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>1284</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>1293</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>1297</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>1299</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>1300</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>1334</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>1360</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>1366</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -8262,7 +8262,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>1383</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>1420</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>1449</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>1510</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>1511</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>1515</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>1519</v>
+        <v>142</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>1522</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>1524</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>1525</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>1526</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -8605,7 +8605,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>1527</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>1528</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>1529</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>1530</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>1531</v>
+        <v>154</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -8765,7 +8765,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>1532</v>
+        <v>155</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>1533</v>
+        <v>156</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>1534</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>1535</v>
+        <v>158</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>1536</v>
+        <v>159</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>1537</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>1538</v>
+        <v>161</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>1539</v>
+        <v>162</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>1540</v>
+        <v>163</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>1541</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>1544</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>1545</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>1546</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>1698</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>1699</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>1700</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>1701</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -9300,7 +9300,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>1705</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>1706</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>1727</v>
+        <v>199</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>1729</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>1762</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>1782</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>1783</v>
+        <v>203</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>1880</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>1920</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>1988</v>
+        <v>208</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -9605,7 +9605,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
-        <v>1989</v>
+        <v>209</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -9634,7 +9634,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
-        <v>1990</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -9666,7 +9666,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
-        <v>1992</v>
+        <v>212</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
-        <v>1993</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1">
-        <v>1994</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -9762,7 +9762,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
-        <v>1995</v>
+        <v>215</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -9794,7 +9794,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
-        <v>1999</v>
+        <v>219</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1">
-        <v>2012</v>
+        <v>232</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -9890,7 +9890,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1">
-        <v>2017</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
-        <v>2018</v>
+        <v>238</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -9948,7 +9948,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1">
-        <v>2037</v>
+        <v>242</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1">
-        <v>2038</v>
+        <v>243</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -10012,7 +10012,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
-        <v>2039</v>
+        <v>244</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1">
-        <v>2062</v>
+        <v>245</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1">
-        <v>2074</v>
+        <v>246</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -10102,7 +10102,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1">
-        <v>2088</v>
+        <v>247</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -10134,7 +10134,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1">
-        <v>2089</v>
+        <v>248</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -10166,7 +10166,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1">
-        <v>2090</v>
+        <v>249</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1">
-        <v>2091</v>
+        <v>250</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -10230,7 +10230,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1">
-        <v>2092</v>
+        <v>251</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -10262,7 +10262,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1">
-        <v>2093</v>
+        <v>252</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1">
-        <v>2094</v>
+        <v>253</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
-        <v>2095</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -10358,7 +10358,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
-        <v>2096</v>
+        <v>255</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -10390,7 +10390,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1">
-        <v>2097</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
-        <v>2098</v>
+        <v>257</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -10454,7 +10454,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
-        <v>2099</v>
+        <v>258</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
-        <v>2100</v>
+        <v>259</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1">
-        <v>2101</v>
+        <v>260</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1">
-        <v>2102</v>
+        <v>261</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1">
-        <v>2103</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
-        <v>2104</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1">
-        <v>2105</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
-        <v>2106</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
-        <v>2107</v>
+        <v>266</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1">
-        <v>2108</v>
+        <v>267</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1">
-        <v>2109</v>
+        <v>268</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1">
-        <v>2110</v>
+        <v>269</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1">
-        <v>2111</v>
+        <v>270</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -10861,7 +10861,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
-        <v>2112</v>
+        <v>271</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
-        <v>2113</v>
+        <v>272</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1">
-        <v>2114</v>
+        <v>273</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1">
-        <v>2115</v>
+        <v>274</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -10977,7 +10977,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="1">
-        <v>2116</v>
+        <v>275</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -11009,7 +11009,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="1">
-        <v>2117</v>
+        <v>276</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1">
-        <v>2118</v>
+        <v>277</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="1">
-        <v>2119</v>
+        <v>278</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1">
-        <v>2120</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="1">
-        <v>2173</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="1">
-        <v>2174</v>
+        <v>281</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="1">
-        <v>2174</v>
+        <v>281</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="1">
-        <v>2212</v>
+        <v>282</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -11253,7 +11253,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="1">
-        <v>2213</v>
+        <v>283</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -11285,7 +11285,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="1">
-        <v>2214</v>
+        <v>284</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="1">
-        <v>2215</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="1">
-        <v>2216</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="1">
-        <v>2217</v>
+        <v>287</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="1">
-        <v>2218</v>
+        <v>288</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="1">
-        <v>2219</v>
+        <v>289</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -11474,7 +11474,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="1">
-        <v>2220</v>
+        <v>290</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="1">
-        <v>2221</v>
+        <v>291</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="1">
-        <v>2222</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="1">
-        <v>2223</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="1">
-        <v>2224</v>
+        <v>294</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="1">
-        <v>2225</v>
+        <v>295</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="1">
-        <v>2226</v>
+        <v>296</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="1">
-        <v>2227</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="1">
-        <v>2228</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -11762,7 +11762,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="1">
-        <v>2229</v>
+        <v>299</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="1">
-        <v>2230</v>
+        <v>300</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="1">
-        <v>2231</v>
+        <v>301</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="1">
-        <v>2254</v>
+        <v>302</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="1">
-        <v>2262</v>
+        <v>303</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -11910,7 +11910,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="1">
-        <v>2263</v>
+        <v>304</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -11939,7 +11939,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="1">
-        <v>2264</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -11968,7 +11968,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="1">
-        <v>2265</v>
+        <v>306</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="1">
-        <v>2266</v>
+        <v>307</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="1">
-        <v>2267</v>
+        <v>308</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -12055,7 +12055,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="1">
-        <v>2268</v>
+        <v>309</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="1">
-        <v>2269</v>
+        <v>310</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="1">
-        <v>2270</v>
+        <v>311</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="1">
-        <v>2271</v>
+        <v>312</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="1">
-        <v>2272</v>
+        <v>313</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="1">
-        <v>2273</v>
+        <v>314</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="1">
-        <v>2274</v>
+        <v>315</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -12258,7 +12258,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="1">
-        <v>2275</v>
+        <v>316</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="1">
-        <v>2276</v>
+        <v>317</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="1">
-        <v>2277</v>
+        <v>318</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -12345,7 +12345,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="1">
-        <v>2278</v>
+        <v>319</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -12374,7 +12374,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="1">
-        <v>2279</v>
+        <v>320</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -12403,7 +12403,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="1">
-        <v>2280</v>
+        <v>321</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -12432,7 +12432,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="1">
-        <v>2281</v>
+        <v>322</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="1">
-        <v>2282</v>
+        <v>323</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="1">
-        <v>2283</v>
+        <v>324</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="1">
-        <v>2284</v>
+        <v>325</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="1">
-        <v>2285</v>
+        <v>326</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="1">
-        <v>2286</v>
+        <v>327</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="1">
-        <v>2287</v>
+        <v>328</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -12635,7 +12635,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="1">
-        <v>2321</v>
+        <v>329</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="1">
-        <v>2396</v>
+        <v>330</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -12693,7 +12693,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="1">
-        <v>2397</v>
+        <v>331</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="1">
-        <v>2398</v>
+        <v>332</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -12751,7 +12751,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="1">
-        <v>2399</v>
+        <v>333</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -12780,7 +12780,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="1">
-        <v>2400</v>
+        <v>334</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="1">
-        <v>2401</v>
+        <v>335</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="1">
-        <v>2402</v>
+        <v>336</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="1">
-        <v>2403</v>
+        <v>337</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -12896,7 +12896,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="1">
-        <v>2404</v>
+        <v>338</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="1">
-        <v>2405</v>
+        <v>339</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="1">
-        <v>2406</v>
+        <v>340</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="1">
-        <v>2406</v>
+        <v>340</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="1">
-        <v>2406</v>
+        <v>340</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="1">
-        <v>2407</v>
+        <v>341</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -13082,7 +13082,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="1">
-        <v>2408</v>
+        <v>342</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="1">
-        <v>2409</v>
+        <v>343</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -13140,7 +13140,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="1">
-        <v>2503</v>
+        <v>344</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -13166,7 +13166,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="1">
-        <v>2504</v>
+        <v>345</v>
       </c>
       <c r="B267" t="s">
         <v>11</v>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="1">
-        <v>2506</v>
+        <v>347</v>
       </c>
       <c r="B268" t="s">
         <v>11</v>
@@ -13227,7 +13227,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="1">
-        <v>2508</v>
+        <v>349</v>
       </c>
       <c r="B269" t="s">
         <v>11</v>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="1">
-        <v>2509</v>
+        <v>350</v>
       </c>
       <c r="B270" t="s">
         <v>11</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="1">
-        <v>2510</v>
+        <v>351</v>
       </c>
       <c r="B271" t="s">
         <v>11</v>
@@ -13314,7 +13314,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="1">
-        <v>2512</v>
+        <v>353</v>
       </c>
       <c r="B272" t="s">
         <v>11</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="1">
-        <v>2514</v>
+        <v>355</v>
       </c>
       <c r="B273" t="s">
         <v>11</v>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="1">
-        <v>2515</v>
+        <v>356</v>
       </c>
       <c r="B274" t="s">
         <v>11</v>
@@ -13401,7 +13401,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="1">
-        <v>2516</v>
+        <v>357</v>
       </c>
       <c r="B275" t="s">
         <v>11</v>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="1">
-        <v>2517</v>
+        <v>358</v>
       </c>
       <c r="B276" t="s">
         <v>11</v>
@@ -13459,7 +13459,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="1">
-        <v>2518</v>
+        <v>359</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
@@ -13488,7 +13488,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="1">
-        <v>2519</v>
+        <v>360</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="1">
-        <v>2520</v>
+        <v>361</v>
       </c>
       <c r="B279" t="s">
         <v>11</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="1">
-        <v>2521</v>
+        <v>362</v>
       </c>
       <c r="B280" t="s">
         <v>11</v>
@@ -13575,7 +13575,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="1">
-        <v>2524</v>
+        <v>363</v>
       </c>
       <c r="B281" t="s">
         <v>11</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="1">
-        <v>2525</v>
+        <v>364</v>
       </c>
       <c r="B282" t="s">
         <v>11</v>
@@ -13633,7 +13633,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="1">
-        <v>2526</v>
+        <v>365</v>
       </c>
       <c r="B283" t="s">
         <v>11</v>
@@ -13662,7 +13662,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="1">
-        <v>2527</v>
+        <v>366</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -13691,7 +13691,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="1">
-        <v>2528</v>
+        <v>367</v>
       </c>
       <c r="B285" t="s">
         <v>11</v>
@@ -13720,7 +13720,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="1">
-        <v>2529</v>
+        <v>368</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -13749,7 +13749,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="1">
-        <v>2530</v>
+        <v>369</v>
       </c>
       <c r="B287" t="s">
         <v>11</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="1">
-        <v>2531</v>
+        <v>370</v>
       </c>
       <c r="B288" t="s">
         <v>11</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="1">
-        <v>2532</v>
+        <v>371</v>
       </c>
       <c r="B289" t="s">
         <v>11</v>
@@ -13836,7 +13836,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="1">
-        <v>2533</v>
+        <v>372</v>
       </c>
       <c r="B290" t="s">
         <v>11</v>
@@ -13865,7 +13865,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="1">
-        <v>2534</v>
+        <v>373</v>
       </c>
       <c r="B291" t="s">
         <v>11</v>
@@ -13894,7 +13894,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="1">
-        <v>2535</v>
+        <v>374</v>
       </c>
       <c r="B292" t="s">
         <v>11</v>
@@ -13923,7 +13923,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="1">
-        <v>2536</v>
+        <v>375</v>
       </c>
       <c r="B293" t="s">
         <v>11</v>
@@ -13952,7 +13952,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="1">
-        <v>2537</v>
+        <v>376</v>
       </c>
       <c r="B294" t="s">
         <v>11</v>
@@ -13981,7 +13981,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="1">
-        <v>2538</v>
+        <v>377</v>
       </c>
       <c r="B295" t="s">
         <v>11</v>
@@ -14013,7 +14013,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="1">
-        <v>2539</v>
+        <v>378</v>
       </c>
       <c r="B296" t="s">
         <v>11</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="1">
-        <v>2539</v>
+        <v>378</v>
       </c>
       <c r="B297" t="s">
         <v>11</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="1">
-        <v>2560</v>
+        <v>379</v>
       </c>
       <c r="B298" t="s">
         <v>11</v>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="1">
-        <v>2561</v>
+        <v>380</v>
       </c>
       <c r="B299" t="s">
         <v>11</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="1">
-        <v>2562</v>
+        <v>381</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
@@ -14170,7 +14170,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="1">
-        <v>2563</v>
+        <v>382</v>
       </c>
       <c r="B301" t="s">
         <v>11</v>
@@ -14202,7 +14202,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="1">
-        <v>2564</v>
+        <v>383</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -14234,7 +14234,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="1">
-        <v>2565</v>
+        <v>384</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="1">
-        <v>2566</v>
+        <v>385</v>
       </c>
       <c r="B304" t="s">
         <v>11</v>
@@ -14295,7 +14295,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="1">
-        <v>2567</v>
+        <v>386</v>
       </c>
       <c r="B305" t="s">
         <v>11</v>
@@ -14327,7 +14327,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="1">
-        <v>2568</v>
+        <v>387</v>
       </c>
       <c r="B306" t="s">
         <v>11</v>
@@ -14359,7 +14359,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="1">
-        <v>2569</v>
+        <v>388</v>
       </c>
       <c r="B307" t="s">
         <v>11</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="1">
-        <v>2570</v>
+        <v>389</v>
       </c>
       <c r="B308" t="s">
         <v>11</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="1">
-        <v>2571</v>
+        <v>390</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="1">
-        <v>2572</v>
+        <v>391</v>
       </c>
       <c r="B310" t="s">
         <v>11</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="1">
-        <v>2573</v>
+        <v>392</v>
       </c>
       <c r="B311" t="s">
         <v>11</v>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="1">
-        <v>2574</v>
+        <v>393</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="1">
-        <v>2575</v>
+        <v>394</v>
       </c>
       <c r="B313" t="s">
         <v>11</v>
@@ -14571,7 +14571,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="1">
-        <v>2576</v>
+        <v>395</v>
       </c>
       <c r="B314" t="s">
         <v>11</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="1">
-        <v>2577</v>
+        <v>396</v>
       </c>
       <c r="B315" t="s">
         <v>11</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="1">
-        <v>2578</v>
+        <v>397</v>
       </c>
       <c r="B316" t="s">
         <v>11</v>
@@ -14664,7 +14664,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="1">
-        <v>2579</v>
+        <v>398</v>
       </c>
       <c r="B317" t="s">
         <v>11</v>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="1">
-        <v>2580</v>
+        <v>399</v>
       </c>
       <c r="B318" t="s">
         <v>11</v>
@@ -14722,7 +14722,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="1">
-        <v>2581</v>
+        <v>400</v>
       </c>
       <c r="B319" t="s">
         <v>11</v>
@@ -14751,7 +14751,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="1">
-        <v>2582</v>
+        <v>401</v>
       </c>
       <c r="B320" t="s">
         <v>11</v>
@@ -14780,7 +14780,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="1">
-        <v>2583</v>
+        <v>402</v>
       </c>
       <c r="B321" t="s">
         <v>11</v>
@@ -14809,7 +14809,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="1">
-        <v>2584</v>
+        <v>403</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="1">
-        <v>2585</v>
+        <v>404</v>
       </c>
       <c r="B323" t="s">
         <v>11</v>
@@ -14867,7 +14867,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="1">
-        <v>2694</v>
+        <v>405</v>
       </c>
       <c r="B324" t="s">
         <v>11</v>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="1">
-        <v>2695</v>
+        <v>406</v>
       </c>
       <c r="B325" t="s">
         <v>11</v>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="1">
-        <v>2696</v>
+        <v>407</v>
       </c>
       <c r="B326" t="s">
         <v>11</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="1">
-        <v>2697</v>
+        <v>408</v>
       </c>
       <c r="B327" t="s">
         <v>11</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="1">
-        <v>2698</v>
+        <v>409</v>
       </c>
       <c r="B328" t="s">
         <v>11</v>
@@ -15018,7 +15018,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="1">
-        <v>2699</v>
+        <v>410</v>
       </c>
       <c r="B329" t="s">
         <v>11</v>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="1">
-        <v>2700</v>
+        <v>411</v>
       </c>
       <c r="B330" t="s">
         <v>11</v>
@@ -15076,7 +15076,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="1">
-        <v>2701</v>
+        <v>412</v>
       </c>
       <c r="B331" t="s">
         <v>11</v>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="1">
-        <v>2702</v>
+        <v>413</v>
       </c>
       <c r="B332" t="s">
         <v>11</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="1">
-        <v>2703</v>
+        <v>414</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
@@ -15169,7 +15169,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="1">
-        <v>2704</v>
+        <v>415</v>
       </c>
       <c r="B334" t="s">
         <v>11</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="1">
-        <v>2705</v>
+        <v>416</v>
       </c>
       <c r="B335" t="s">
         <v>11</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="1">
-        <v>2706</v>
+        <v>417</v>
       </c>
       <c r="B336" t="s">
         <v>11</v>
@@ -15259,7 +15259,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="1">
-        <v>2707</v>
+        <v>418</v>
       </c>
       <c r="B337" t="s">
         <v>11</v>
@@ -15288,7 +15288,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="1">
-        <v>2708</v>
+        <v>419</v>
       </c>
       <c r="B338" t="s">
         <v>11</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="1">
-        <v>2708</v>
+        <v>419</v>
       </c>
       <c r="B339" t="s">
         <v>11</v>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="1">
-        <v>2708</v>
+        <v>419</v>
       </c>
       <c r="B340" t="s">
         <v>11</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="1">
-        <v>2709</v>
+        <v>420</v>
       </c>
       <c r="B341" t="s">
         <v>11</v>
@@ -15416,7 +15416,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="1">
-        <v>2709</v>
+        <v>420</v>
       </c>
       <c r="B342" t="s">
         <v>11</v>
@@ -15448,7 +15448,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="1">
-        <v>2709</v>
+        <v>420</v>
       </c>
       <c r="B343" t="s">
         <v>11</v>
@@ -15480,7 +15480,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="1">
-        <v>2803</v>
+        <v>421</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="1">
-        <v>2804</v>
+        <v>422</v>
       </c>
       <c r="B345" t="s">
         <v>11</v>
@@ -15541,7 +15541,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="1">
-        <v>2805</v>
+        <v>423</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="1">
-        <v>2806</v>
+        <v>424</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
@@ -15605,7 +15605,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="1">
-        <v>2807</v>
+        <v>425</v>
       </c>
       <c r="B348" t="s">
         <v>11</v>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="1">
-        <v>2808</v>
+        <v>426</v>
       </c>
       <c r="B349" t="s">
         <v>11</v>
@@ -15663,7 +15663,7 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="1">
-        <v>2809</v>
+        <v>427</v>
       </c>
       <c r="B350" t="s">
         <v>11</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="1">
-        <v>2810</v>
+        <v>428</v>
       </c>
       <c r="B351" t="s">
         <v>11</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="1">
-        <v>2811</v>
+        <v>429</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="1">
-        <v>2812</v>
+        <v>430</v>
       </c>
       <c r="B353" t="s">
         <v>11</v>
@@ -15785,7 +15785,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="1">
-        <v>2813</v>
+        <v>431</v>
       </c>
       <c r="B354" t="s">
         <v>11</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="1">
-        <v>2814</v>
+        <v>432</v>
       </c>
       <c r="B355" t="s">
         <v>11</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="1">
-        <v>2815</v>
+        <v>433</v>
       </c>
       <c r="B356" t="s">
         <v>11</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="1">
-        <v>2816</v>
+        <v>434</v>
       </c>
       <c r="B357" t="s">
         <v>11</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="358" spans="1:12">
       <c r="A358" s="1">
-        <v>2817</v>
+        <v>435</v>
       </c>
       <c r="B358" t="s">
         <v>11</v>
@@ -15945,7 +15945,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="1">
-        <v>2849</v>
+        <v>436</v>
       </c>
       <c r="B359" t="s">
         <v>11</v>
@@ -15977,7 +15977,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="1">
-        <v>2926</v>
+        <v>437</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="1">
-        <v>2945</v>
+        <v>438</v>
       </c>
       <c r="B361" t="s">
         <v>11</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="1">
-        <v>2946</v>
+        <v>439</v>
       </c>
       <c r="B362" t="s">
         <v>11</v>
@@ -16070,7 +16070,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="1">
-        <v>2947</v>
+        <v>440</v>
       </c>
       <c r="B363" t="s">
         <v>11</v>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="1">
-        <v>2948</v>
+        <v>441</v>
       </c>
       <c r="B364" t="s">
         <v>11</v>
@@ -16134,7 +16134,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="1">
-        <v>2949</v>
+        <v>442</v>
       </c>
       <c r="B365" t="s">
         <v>11</v>
@@ -16166,7 +16166,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1">
-        <v>2952</v>
+        <v>445</v>
       </c>
       <c r="B366" t="s">
         <v>11</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1">
-        <v>2953</v>
+        <v>446</v>
       </c>
       <c r="B367" t="s">
         <v>11</v>
@@ -16227,7 +16227,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="1">
-        <v>2959</v>
+        <v>452</v>
       </c>
       <c r="B368" t="s">
         <v>11</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="1">
-        <v>2960</v>
+        <v>453</v>
       </c>
       <c r="B369" t="s">
         <v>11</v>
@@ -16291,7 +16291,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="1">
-        <v>2961</v>
+        <v>454</v>
       </c>
       <c r="B370" t="s">
         <v>11</v>
@@ -16323,7 +16323,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="1">
-        <v>2962</v>
+        <v>455</v>
       </c>
       <c r="B371" t="s">
         <v>11</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="1">
-        <v>2963</v>
+        <v>456</v>
       </c>
       <c r="B372" t="s">
         <v>11</v>
@@ -16387,7 +16387,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="1">
-        <v>2964</v>
+        <v>457</v>
       </c>
       <c r="B373" t="s">
         <v>11</v>
@@ -16419,7 +16419,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="1">
-        <v>2965</v>
+        <v>458</v>
       </c>
       <c r="B374" t="s">
         <v>11</v>
@@ -16451,7 +16451,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="1">
-        <v>2966</v>
+        <v>459</v>
       </c>
       <c r="B375" t="s">
         <v>11</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="1">
-        <v>2968</v>
+        <v>461</v>
       </c>
       <c r="B376" t="s">
         <v>11</v>
@@ -16515,7 +16515,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="1">
-        <v>2969</v>
+        <v>462</v>
       </c>
       <c r="B377" t="s">
         <v>11</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="1">
-        <v>2971</v>
+        <v>464</v>
       </c>
       <c r="B378" t="s">
         <v>11</v>
@@ -16579,7 +16579,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="1">
-        <v>2972</v>
+        <v>465</v>
       </c>
       <c r="B379" t="s">
         <v>11</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="1">
-        <v>2974</v>
+        <v>467</v>
       </c>
       <c r="B380" t="s">
         <v>11</v>
@@ -16643,7 +16643,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="1">
-        <v>2975</v>
+        <v>468</v>
       </c>
       <c r="B381" t="s">
         <v>11</v>
@@ -16675,7 +16675,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="1">
-        <v>2977</v>
+        <v>470</v>
       </c>
       <c r="B382" t="s">
         <v>11</v>
@@ -16707,7 +16707,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="1">
-        <v>2978</v>
+        <v>471</v>
       </c>
       <c r="B383" t="s">
         <v>11</v>
@@ -16739,7 +16739,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="1">
-        <v>2979</v>
+        <v>472</v>
       </c>
       <c r="B384" t="s">
         <v>11</v>
@@ -16771,7 +16771,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="1">
-        <v>2980</v>
+        <v>473</v>
       </c>
       <c r="B385" t="s">
         <v>11</v>
@@ -16803,7 +16803,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="1">
-        <v>2981</v>
+        <v>474</v>
       </c>
       <c r="B386" t="s">
         <v>11</v>
@@ -16835,7 +16835,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="1">
-        <v>2982</v>
+        <v>475</v>
       </c>
       <c r="B387" t="s">
         <v>11</v>
@@ -16867,7 +16867,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="1">
-        <v>2983</v>
+        <v>476</v>
       </c>
       <c r="B388" t="s">
         <v>11</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="1">
-        <v>2984</v>
+        <v>477</v>
       </c>
       <c r="B389" t="s">
         <v>11</v>
@@ -16931,7 +16931,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="1">
-        <v>2985</v>
+        <v>478</v>
       </c>
       <c r="B390" t="s">
         <v>11</v>
@@ -16963,7 +16963,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="1">
-        <v>2986</v>
+        <v>479</v>
       </c>
       <c r="B391" t="s">
         <v>11</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="1">
-        <v>2987</v>
+        <v>480</v>
       </c>
       <c r="B392" t="s">
         <v>11</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="1">
-        <v>2988</v>
+        <v>481</v>
       </c>
       <c r="B393" t="s">
         <v>11</v>
@@ -17059,7 +17059,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="1">
-        <v>2989</v>
+        <v>482</v>
       </c>
       <c r="B394" t="s">
         <v>11</v>
@@ -17091,7 +17091,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="1">
-        <v>2990</v>
+        <v>483</v>
       </c>
       <c r="B395" t="s">
         <v>11</v>
@@ -17123,7 +17123,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="1">
-        <v>2991</v>
+        <v>484</v>
       </c>
       <c r="B396" t="s">
         <v>11</v>
@@ -17155,7 +17155,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="1">
-        <v>2992</v>
+        <v>485</v>
       </c>
       <c r="B397" t="s">
         <v>11</v>
@@ -17187,7 +17187,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="1">
-        <v>2993</v>
+        <v>486</v>
       </c>
       <c r="B398" t="s">
         <v>11</v>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="1">
-        <v>2994</v>
+        <v>487</v>
       </c>
       <c r="B399" t="s">
         <v>11</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="1">
-        <v>2995</v>
+        <v>488</v>
       </c>
       <c r="B400" t="s">
         <v>11</v>
@@ -17283,7 +17283,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="1">
-        <v>2996</v>
+        <v>489</v>
       </c>
       <c r="B401" t="s">
         <v>11</v>
@@ -17315,7 +17315,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="1">
-        <v>2997</v>
+        <v>490</v>
       </c>
       <c r="B402" t="s">
         <v>11</v>
@@ -17347,7 +17347,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="1">
-        <v>2998</v>
+        <v>491</v>
       </c>
       <c r="B403" t="s">
         <v>11</v>
@@ -17379,7 +17379,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="1">
-        <v>2999</v>
+        <v>492</v>
       </c>
       <c r="B404" t="s">
         <v>11</v>
@@ -17411,7 +17411,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="1">
-        <v>3000</v>
+        <v>493</v>
       </c>
       <c r="B405" t="s">
         <v>11</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="1">
-        <v>3001</v>
+        <v>494</v>
       </c>
       <c r="B406" t="s">
         <v>11</v>
@@ -17472,7 +17472,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="1">
-        <v>3002</v>
+        <v>495</v>
       </c>
       <c r="B407" t="s">
         <v>11</v>
@@ -17504,7 +17504,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="1">
-        <v>3003</v>
+        <v>496</v>
       </c>
       <c r="B408" t="s">
         <v>11</v>
@@ -17536,7 +17536,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="1">
-        <v>3004</v>
+        <v>497</v>
       </c>
       <c r="B409" t="s">
         <v>11</v>
@@ -17568,7 +17568,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="1">
-        <v>3016</v>
+        <v>498</v>
       </c>
       <c r="B410" t="s">
         <v>11</v>
@@ -17600,7 +17600,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="1">
-        <v>3017</v>
+        <v>499</v>
       </c>
       <c r="B411" t="s">
         <v>11</v>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="1">
-        <v>3018</v>
+        <v>500</v>
       </c>
       <c r="B412" t="s">
         <v>11</v>
@@ -17664,7 +17664,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="1">
-        <v>3019</v>
+        <v>501</v>
       </c>
       <c r="B413" t="s">
         <v>11</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="1">
-        <v>3020</v>
+        <v>502</v>
       </c>
       <c r="B414" t="s">
         <v>11</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="1">
-        <v>3021</v>
+        <v>503</v>
       </c>
       <c r="B415" t="s">
         <v>11</v>
@@ -17757,7 +17757,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="1">
-        <v>3022</v>
+        <v>504</v>
       </c>
       <c r="B416" t="s">
         <v>11</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="1">
-        <v>3023</v>
+        <v>505</v>
       </c>
       <c r="B417" t="s">
         <v>11</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="1">
-        <v>3024</v>
+        <v>506</v>
       </c>
       <c r="B418" t="s">
         <v>11</v>
@@ -17853,7 +17853,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="1">
-        <v>3027</v>
+        <v>509</v>
       </c>
       <c r="B419" t="s">
         <v>11</v>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="1">
-        <v>3028</v>
+        <v>510</v>
       </c>
       <c r="B420" t="s">
         <v>11</v>
@@ -17917,7 +17917,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="1">
-        <v>3029</v>
+        <v>511</v>
       </c>
       <c r="B421" t="s">
         <v>11</v>
@@ -17949,7 +17949,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="1">
-        <v>3030</v>
+        <v>512</v>
       </c>
       <c r="B422" t="s">
         <v>11</v>
@@ -17981,7 +17981,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="1">
-        <v>3031</v>
+        <v>513</v>
       </c>
       <c r="B423" t="s">
         <v>11</v>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="1">
-        <v>3032</v>
+        <v>514</v>
       </c>
       <c r="B424" t="s">
         <v>11</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="1">
-        <v>3033</v>
+        <v>515</v>
       </c>
       <c r="B425" t="s">
         <v>11</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="1">
-        <v>3034</v>
+        <v>516</v>
       </c>
       <c r="B426" t="s">
         <v>11</v>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="1">
-        <v>3035</v>
+        <v>517</v>
       </c>
       <c r="B427" t="s">
         <v>11</v>
@@ -18141,7 +18141,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="1">
-        <v>3036</v>
+        <v>518</v>
       </c>
       <c r="B428" t="s">
         <v>11</v>
@@ -18173,7 +18173,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="1">
-        <v>3037</v>
+        <v>519</v>
       </c>
       <c r="B429" t="s">
         <v>11</v>
@@ -18202,7 +18202,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="1">
-        <v>3038</v>
+        <v>520</v>
       </c>
       <c r="B430" t="s">
         <v>11</v>
@@ -18234,7 +18234,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="1">
-        <v>3041</v>
+        <v>521</v>
       </c>
       <c r="B431" t="s">
         <v>11</v>
@@ -18266,7 +18266,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="1">
-        <v>3042</v>
+        <v>522</v>
       </c>
       <c r="B432" t="s">
         <v>11</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="1">
-        <v>3043</v>
+        <v>523</v>
       </c>
       <c r="B433" t="s">
         <v>11</v>
@@ -18330,7 +18330,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="1">
-        <v>3044</v>
+        <v>524</v>
       </c>
       <c r="B434" t="s">
         <v>11</v>
@@ -18362,7 +18362,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="1">
-        <v>3045</v>
+        <v>525</v>
       </c>
       <c r="B435" t="s">
         <v>11</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="1">
-        <v>3046</v>
+        <v>526</v>
       </c>
       <c r="B436" t="s">
         <v>11</v>
@@ -18426,7 +18426,7 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="1">
-        <v>3047</v>
+        <v>527</v>
       </c>
       <c r="B437" t="s">
         <v>11</v>
@@ -18458,7 +18458,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="1">
-        <v>3048</v>
+        <v>528</v>
       </c>
       <c r="B438" t="s">
         <v>11</v>
@@ -18490,7 +18490,7 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="1">
-        <v>3049</v>
+        <v>529</v>
       </c>
       <c r="B439" t="s">
         <v>11</v>
@@ -18519,7 +18519,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="1">
-        <v>3050</v>
+        <v>530</v>
       </c>
       <c r="B440" t="s">
         <v>11</v>
@@ -18551,7 +18551,7 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="1">
-        <v>3051</v>
+        <v>531</v>
       </c>
       <c r="B441" t="s">
         <v>11</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="1">
-        <v>3052</v>
+        <v>532</v>
       </c>
       <c r="B442" t="s">
         <v>11</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="1">
-        <v>3053</v>
+        <v>533</v>
       </c>
       <c r="B443" t="s">
         <v>11</v>
@@ -18647,7 +18647,7 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="1">
-        <v>3054</v>
+        <v>534</v>
       </c>
       <c r="B444" t="s">
         <v>11</v>
@@ -18679,7 +18679,7 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="1">
-        <v>3055</v>
+        <v>535</v>
       </c>
       <c r="B445" t="s">
         <v>11</v>
@@ -18711,7 +18711,7 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="1">
-        <v>3056</v>
+        <v>536</v>
       </c>
       <c r="B446" t="s">
         <v>11</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="1">
-        <v>3057</v>
+        <v>537</v>
       </c>
       <c r="B447" t="s">
         <v>11</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="1">
-        <v>3058</v>
+        <v>538</v>
       </c>
       <c r="B448" t="s">
         <v>11</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="1">
-        <v>3059</v>
+        <v>539</v>
       </c>
       <c r="B449" t="s">
         <v>11</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="1">
-        <v>3060</v>
+        <v>540</v>
       </c>
       <c r="B450" t="s">
         <v>11</v>
@@ -18865,7 +18865,7 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="1">
-        <v>3061</v>
+        <v>541</v>
       </c>
       <c r="B451" t="s">
         <v>11</v>
@@ -18894,7 +18894,7 @@
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="1">
-        <v>3062</v>
+        <v>542</v>
       </c>
       <c r="B452" t="s">
         <v>11</v>
@@ -18923,7 +18923,7 @@
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="1">
-        <v>3063</v>
+        <v>543</v>
       </c>
       <c r="B453" t="s">
         <v>11</v>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="1">
-        <v>3064</v>
+        <v>544</v>
       </c>
       <c r="B454" t="s">
         <v>11</v>
@@ -18984,7 +18984,7 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="1">
-        <v>3065</v>
+        <v>545</v>
       </c>
       <c r="B455" t="s">
         <v>11</v>
@@ -19016,7 +19016,7 @@
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="1">
-        <v>3066</v>
+        <v>546</v>
       </c>
       <c r="B456" t="s">
         <v>11</v>
@@ -19048,7 +19048,7 @@
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="1">
-        <v>3067</v>
+        <v>547</v>
       </c>
       <c r="B457" t="s">
         <v>11</v>
@@ -19077,7 +19077,7 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="1">
-        <v>3068</v>
+        <v>548</v>
       </c>
       <c r="B458" t="s">
         <v>11</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="1">
-        <v>3069</v>
+        <v>549</v>
       </c>
       <c r="B459" t="s">
         <v>11</v>
@@ -19141,7 +19141,7 @@
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="1">
-        <v>3070</v>
+        <v>550</v>
       </c>
       <c r="B460" t="s">
         <v>11</v>
@@ -19173,7 +19173,7 @@
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="1">
-        <v>3071</v>
+        <v>551</v>
       </c>
       <c r="B461" t="s">
         <v>11</v>
@@ -19205,7 +19205,7 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="1">
-        <v>3072</v>
+        <v>552</v>
       </c>
       <c r="B462" t="s">
         <v>11</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="1">
-        <v>3073</v>
+        <v>553</v>
       </c>
       <c r="B463" t="s">
         <v>11</v>
@@ -19269,7 +19269,7 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="1">
-        <v>3074</v>
+        <v>554</v>
       </c>
       <c r="B464" t="s">
         <v>11</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="1">
-        <v>3075</v>
+        <v>555</v>
       </c>
       <c r="B465" t="s">
         <v>11</v>
@@ -19333,7 +19333,7 @@
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="1">
-        <v>3076</v>
+        <v>556</v>
       </c>
       <c r="B466" t="s">
         <v>11</v>
@@ -19365,7 +19365,7 @@
     </row>
     <row r="467" spans="1:12">
       <c r="A467" s="1">
-        <v>3077</v>
+        <v>557</v>
       </c>
       <c r="B467" t="s">
         <v>11</v>
@@ -19397,7 +19397,7 @@
     </row>
     <row r="468" spans="1:12">
       <c r="A468" s="1">
-        <v>3078</v>
+        <v>558</v>
       </c>
       <c r="B468" t="s">
         <v>11</v>
@@ -19429,7 +19429,7 @@
     </row>
     <row r="469" spans="1:12">
       <c r="A469" s="1">
-        <v>3079</v>
+        <v>559</v>
       </c>
       <c r="B469" t="s">
         <v>11</v>
@@ -19461,7 +19461,7 @@
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="1">
-        <v>3080</v>
+        <v>560</v>
       </c>
       <c r="B470" t="s">
         <v>11</v>
@@ -19493,7 +19493,7 @@
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="1">
-        <v>3081</v>
+        <v>561</v>
       </c>
       <c r="B471" t="s">
         <v>11</v>
@@ -19525,7 +19525,7 @@
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="1">
-        <v>3082</v>
+        <v>562</v>
       </c>
       <c r="B472" t="s">
         <v>11</v>
@@ -19557,7 +19557,7 @@
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="1">
-        <v>3083</v>
+        <v>563</v>
       </c>
       <c r="B473" t="s">
         <v>11</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="1">
-        <v>3084</v>
+        <v>564</v>
       </c>
       <c r="B474" t="s">
         <v>11</v>
@@ -19621,7 +19621,7 @@
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="1">
-        <v>3085</v>
+        <v>565</v>
       </c>
       <c r="B475" t="s">
         <v>11</v>
@@ -19653,7 +19653,7 @@
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="1">
-        <v>3086</v>
+        <v>566</v>
       </c>
       <c r="B476" t="s">
         <v>11</v>
@@ -19685,7 +19685,7 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="1">
-        <v>3087</v>
+        <v>567</v>
       </c>
       <c r="B477" t="s">
         <v>11</v>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="1">
-        <v>3088</v>
+        <v>568</v>
       </c>
       <c r="B478" t="s">
         <v>11</v>
@@ -19749,7 +19749,7 @@
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="1">
-        <v>3089</v>
+        <v>569</v>
       </c>
       <c r="B479" t="s">
         <v>11</v>
@@ -19781,7 +19781,7 @@
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="1">
-        <v>3398</v>
+        <v>570</v>
       </c>
       <c r="B480" t="s">
         <v>11</v>
@@ -19810,7 +19810,7 @@
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="1">
-        <v>3399</v>
+        <v>571</v>
       </c>
       <c r="B481" t="s">
         <v>11</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="482" spans="1:12">
       <c r="A482" s="1">
-        <v>3400</v>
+        <v>572</v>
       </c>
       <c r="B482" t="s">
         <v>11</v>
@@ -19868,7 +19868,7 @@
     </row>
     <row r="483" spans="1:12">
       <c r="A483" s="1">
-        <v>3401</v>
+        <v>573</v>
       </c>
       <c r="B483" t="s">
         <v>11</v>
@@ -19897,7 +19897,7 @@
     </row>
     <row r="484" spans="1:12">
       <c r="A484" s="1">
-        <v>3402</v>
+        <v>574</v>
       </c>
       <c r="B484" t="s">
         <v>11</v>
@@ -19926,7 +19926,7 @@
     </row>
     <row r="485" spans="1:12">
       <c r="A485" s="1">
-        <v>3403</v>
+        <v>575</v>
       </c>
       <c r="B485" t="s">
         <v>11</v>
@@ -19958,7 +19958,7 @@
     </row>
     <row r="486" spans="1:12">
       <c r="A486" s="1">
-        <v>3404</v>
+        <v>576</v>
       </c>
       <c r="B486" t="s">
         <v>11</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="1">
-        <v>3405</v>
+        <v>577</v>
       </c>
       <c r="B487" t="s">
         <v>11</v>
@@ -20016,7 +20016,7 @@
     </row>
     <row r="488" spans="1:12">
       <c r="A488" s="1">
-        <v>3405</v>
+        <v>577</v>
       </c>
       <c r="B488" t="s">
         <v>11</v>
@@ -20045,7 +20045,7 @@
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="1">
-        <v>3406</v>
+        <v>578</v>
       </c>
       <c r="B489" t="s">
         <v>11</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="1">
-        <v>3407</v>
+        <v>579</v>
       </c>
       <c r="B490" t="s">
         <v>11</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="491" spans="1:12">
       <c r="A491" s="1">
-        <v>3408</v>
+        <v>580</v>
       </c>
       <c r="B491" t="s">
         <v>11</v>
@@ -20132,7 +20132,7 @@
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="1">
-        <v>3409</v>
+        <v>581</v>
       </c>
       <c r="B492" t="s">
         <v>11</v>
@@ -20161,7 +20161,7 @@
     </row>
     <row r="493" spans="1:12">
       <c r="A493" s="1">
-        <v>3410</v>
+        <v>582</v>
       </c>
       <c r="B493" t="s">
         <v>11</v>
@@ -20190,7 +20190,7 @@
     </row>
     <row r="494" spans="1:12">
       <c r="A494" s="1">
-        <v>3411</v>
+        <v>583</v>
       </c>
       <c r="B494" t="s">
         <v>11</v>
@@ -20222,7 +20222,7 @@
     </row>
     <row r="495" spans="1:12">
       <c r="A495" s="1">
-        <v>3412</v>
+        <v>584</v>
       </c>
       <c r="B495" t="s">
         <v>11</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="496" spans="1:12">
       <c r="A496" s="1">
-        <v>3413</v>
+        <v>585</v>
       </c>
       <c r="B496" t="s">
         <v>11</v>
@@ -20280,7 +20280,7 @@
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="1">
-        <v>3414</v>
+        <v>586</v>
       </c>
       <c r="B497" t="s">
         <v>11</v>
@@ -20309,7 +20309,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="1">
-        <v>3470</v>
+        <v>587</v>
       </c>
       <c r="B498" t="s">
         <v>11</v>
@@ -20338,7 +20338,7 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="1">
-        <v>3471</v>
+        <v>588</v>
       </c>
       <c r="B499" t="s">
         <v>11</v>
@@ -20367,7 +20367,7 @@
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="1">
-        <v>3472</v>
+        <v>589</v>
       </c>
       <c r="B500" t="s">
         <v>11</v>
@@ -20396,7 +20396,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="1">
-        <v>3473</v>
+        <v>590</v>
       </c>
       <c r="B501" t="s">
         <v>11</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="1">
-        <v>3474</v>
+        <v>591</v>
       </c>
       <c r="B502" t="s">
         <v>11</v>
@@ -20457,7 +20457,7 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="1">
-        <v>3475</v>
+        <v>592</v>
       </c>
       <c r="B503" t="s">
         <v>11</v>
@@ -20486,7 +20486,7 @@
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="1">
-        <v>3494</v>
+        <v>593</v>
       </c>
       <c r="B504" t="s">
         <v>11</v>
@@ -20518,7 +20518,7 @@
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="1">
-        <v>3525</v>
+        <v>594</v>
       </c>
       <c r="B505" t="s">
         <v>11</v>
@@ -20550,7 +20550,7 @@
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="1">
-        <v>3526</v>
+        <v>595</v>
       </c>
       <c r="B506" t="s">
         <v>11</v>
@@ -20582,7 +20582,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="1">
-        <v>3527</v>
+        <v>596</v>
       </c>
       <c r="B507" t="s">
         <v>11</v>
@@ -20614,7 +20614,7 @@
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="1">
-        <v>3528</v>
+        <v>597</v>
       </c>
       <c r="B508" t="s">
         <v>11</v>
@@ -20646,7 +20646,7 @@
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="1">
-        <v>3529</v>
+        <v>598</v>
       </c>
       <c r="B509" t="s">
         <v>11</v>
@@ -20678,7 +20678,7 @@
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="1">
-        <v>3530</v>
+        <v>599</v>
       </c>
       <c r="B510" t="s">
         <v>11</v>
@@ -20710,7 +20710,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="1">
-        <v>3531</v>
+        <v>600</v>
       </c>
       <c r="B511" t="s">
         <v>11</v>
@@ -20739,7 +20739,7 @@
     </row>
     <row r="512" spans="1:12">
       <c r="A512" s="1">
-        <v>3532</v>
+        <v>601</v>
       </c>
       <c r="B512" t="s">
         <v>11</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="1">
-        <v>3533</v>
+        <v>602</v>
       </c>
       <c r="B513" t="s">
         <v>11</v>
@@ -20797,7 +20797,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="1">
-        <v>3534</v>
+        <v>603</v>
       </c>
       <c r="B514" t="s">
         <v>11</v>
@@ -20826,7 +20826,7 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="1">
-        <v>3535</v>
+        <v>604</v>
       </c>
       <c r="B515" t="s">
         <v>11</v>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="1">
-        <v>3536</v>
+        <v>605</v>
       </c>
       <c r="B516" t="s">
         <v>11</v>
@@ -20884,7 +20884,7 @@
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="1">
-        <v>3537</v>
+        <v>606</v>
       </c>
       <c r="B517" t="s">
         <v>11</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="1">
-        <v>3538</v>
+        <v>607</v>
       </c>
       <c r="B518" t="s">
         <v>11</v>
@@ -20942,7 +20942,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="1">
-        <v>3539</v>
+        <v>608</v>
       </c>
       <c r="B519" t="s">
         <v>11</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="1">
-        <v>3540</v>
+        <v>609</v>
       </c>
       <c r="B520" t="s">
         <v>11</v>
@@ -21000,7 +21000,7 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="1">
-        <v>3541</v>
+        <v>610</v>
       </c>
       <c r="B521" t="s">
         <v>11</v>
@@ -21029,7 +21029,7 @@
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="1">
-        <v>3542</v>
+        <v>611</v>
       </c>
       <c r="B522" t="s">
         <v>11</v>
@@ -21058,7 +21058,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="1">
-        <v>3543</v>
+        <v>612</v>
       </c>
       <c r="B523" t="s">
         <v>11</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="1">
-        <v>3544</v>
+        <v>613</v>
       </c>
       <c r="B524" t="s">
         <v>11</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="1">
-        <v>3640</v>
+        <v>614</v>
       </c>
       <c r="B525" t="s">
         <v>11</v>
@@ -21145,7 +21145,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="1">
-        <v>3641</v>
+        <v>615</v>
       </c>
       <c r="B526" t="s">
         <v>11</v>
@@ -21174,7 +21174,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="1">
-        <v>3642</v>
+        <v>616</v>
       </c>
       <c r="B527" t="s">
         <v>11</v>
@@ -21206,7 +21206,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="1">
-        <v>3663</v>
+        <v>617</v>
       </c>
       <c r="B528" t="s">
         <v>11</v>
@@ -21238,7 +21238,7 @@
     </row>
     <row r="529" spans="1:12">
       <c r="A529" s="1">
-        <v>3664</v>
+        <v>618</v>
       </c>
       <c r="B529" t="s">
         <v>11</v>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="530" spans="1:12">
       <c r="A530" s="1">
-        <v>3665</v>
+        <v>619</v>
       </c>
       <c r="B530" t="s">
         <v>11</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="1">
-        <v>3666</v>
+        <v>620</v>
       </c>
       <c r="B531" t="s">
         <v>11</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="532" spans="1:12">
       <c r="A532" s="1">
-        <v>3667</v>
+        <v>621</v>
       </c>
       <c r="B532" t="s">
         <v>11</v>
@@ -21357,7 +21357,7 @@
     </row>
     <row r="533" spans="1:12">
       <c r="A533" s="1">
-        <v>3668</v>
+        <v>622</v>
       </c>
       <c r="B533" t="s">
         <v>11</v>
@@ -21386,7 +21386,7 @@
     </row>
     <row r="534" spans="1:12">
       <c r="A534" s="1">
-        <v>3669</v>
+        <v>623</v>
       </c>
       <c r="B534" t="s">
         <v>11</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="A535" s="1">
-        <v>3670</v>
+        <v>624</v>
       </c>
       <c r="B535" t="s">
         <v>11</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="536" spans="1:12">
       <c r="A536" s="1">
-        <v>3671</v>
+        <v>625</v>
       </c>
       <c r="B536" t="s">
         <v>11</v>
@@ -21473,7 +21473,7 @@
     </row>
     <row r="537" spans="1:12">
       <c r="A537" s="1">
-        <v>3672</v>
+        <v>626</v>
       </c>
       <c r="B537" t="s">
         <v>11</v>
@@ -21502,7 +21502,7 @@
     </row>
     <row r="538" spans="1:12">
       <c r="A538" s="1">
-        <v>3673</v>
+        <v>627</v>
       </c>
       <c r="B538" t="s">
         <v>11</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="1">
-        <v>3674</v>
+        <v>628</v>
       </c>
       <c r="B539" t="s">
         <v>11</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="1">
-        <v>3675</v>
+        <v>629</v>
       </c>
       <c r="B540" t="s">
         <v>11</v>
@@ -21589,7 +21589,7 @@
     </row>
     <row r="541" spans="1:12">
       <c r="A541" s="1">
-        <v>3676</v>
+        <v>630</v>
       </c>
       <c r="B541" t="s">
         <v>11</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="A542" s="1">
-        <v>3677</v>
+        <v>631</v>
       </c>
       <c r="B542" t="s">
         <v>11</v>
@@ -21647,7 +21647,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="A543" s="1">
-        <v>3678</v>
+        <v>632</v>
       </c>
       <c r="B543" t="s">
         <v>11</v>
@@ -21676,7 +21676,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="A544" s="1">
-        <v>3679</v>
+        <v>633</v>
       </c>
       <c r="B544" t="s">
         <v>11</v>
@@ -21705,7 +21705,7 @@
     </row>
     <row r="545" spans="1:12">
       <c r="A545" s="1">
-        <v>3680</v>
+        <v>634</v>
       </c>
       <c r="B545" t="s">
         <v>11</v>
@@ -21734,7 +21734,7 @@
     </row>
     <row r="546" spans="1:12">
       <c r="A546" s="1">
-        <v>3681</v>
+        <v>635</v>
       </c>
       <c r="B546" t="s">
         <v>11</v>
@@ -21763,7 +21763,7 @@
     </row>
     <row r="547" spans="1:12">
       <c r="A547" s="1">
-        <v>3692</v>
+        <v>636</v>
       </c>
       <c r="B547" t="s">
         <v>11</v>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="1">
-        <v>3692</v>
+        <v>636</v>
       </c>
       <c r="B548" t="s">
         <v>11</v>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="1">
-        <v>3692</v>
+        <v>636</v>
       </c>
       <c r="B549" t="s">
         <v>11</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="1">
-        <v>3693</v>
+        <v>637</v>
       </c>
       <c r="B550" t="s">
         <v>11</v>
@@ -21891,7 +21891,7 @@
     </row>
     <row r="551" spans="1:12">
       <c r="A551" s="1">
-        <v>3693</v>
+        <v>637</v>
       </c>
       <c r="B551" t="s">
         <v>11</v>
@@ -21923,7 +21923,7 @@
     </row>
     <row r="552" spans="1:12">
       <c r="A552" s="1">
-        <v>3693</v>
+        <v>637</v>
       </c>
       <c r="B552" t="s">
         <v>11</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="553" spans="1:12">
       <c r="A553" s="1">
-        <v>3714</v>
+        <v>638</v>
       </c>
       <c r="B553" t="s">
         <v>11</v>
@@ -21987,7 +21987,7 @@
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="1">
-        <v>3714</v>
+        <v>638</v>
       </c>
       <c r="B554" t="s">
         <v>11</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" s="1">
-        <v>3714</v>
+        <v>638</v>
       </c>
       <c r="B555" t="s">
         <v>11</v>
@@ -22051,7 +22051,7 @@
     </row>
     <row r="556" spans="1:12">
       <c r="A556" s="1">
-        <v>3715</v>
+        <v>639</v>
       </c>
       <c r="B556" t="s">
         <v>11</v>
@@ -22083,7 +22083,7 @@
     </row>
     <row r="557" spans="1:12">
       <c r="A557" s="1">
-        <v>3715</v>
+        <v>639</v>
       </c>
       <c r="B557" t="s">
         <v>11</v>
@@ -22115,7 +22115,7 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" s="1">
-        <v>3715</v>
+        <v>639</v>
       </c>
       <c r="B558" t="s">
         <v>11</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="A559" s="1">
-        <v>3716</v>
+        <v>640</v>
       </c>
       <c r="B559" t="s">
         <v>11</v>
@@ -22176,7 +22176,7 @@
     </row>
     <row r="560" spans="1:12">
       <c r="A560" s="1">
-        <v>3717</v>
+        <v>641</v>
       </c>
       <c r="B560" t="s">
         <v>11</v>
@@ -22205,7 +22205,7 @@
     </row>
     <row r="561" spans="1:12">
       <c r="A561" s="1">
-        <v>3718</v>
+        <v>642</v>
       </c>
       <c r="B561" t="s">
         <v>11</v>
@@ -22237,7 +22237,7 @@
     </row>
     <row r="562" spans="1:12">
       <c r="A562" s="1">
-        <v>3719</v>
+        <v>643</v>
       </c>
       <c r="B562" t="s">
         <v>11</v>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="563" spans="1:12">
       <c r="A563" s="1">
-        <v>3720</v>
+        <v>644</v>
       </c>
       <c r="B563" t="s">
         <v>11</v>
@@ -22295,7 +22295,7 @@
     </row>
     <row r="564" spans="1:12">
       <c r="A564" s="1">
-        <v>3721</v>
+        <v>645</v>
       </c>
       <c r="B564" t="s">
         <v>11</v>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="565" spans="1:12">
       <c r="A565" s="1">
-        <v>3722</v>
+        <v>646</v>
       </c>
       <c r="B565" t="s">
         <v>11</v>
@@ -22353,7 +22353,7 @@
     </row>
     <row r="566" spans="1:12">
       <c r="A566" s="1">
-        <v>3778</v>
+        <v>647</v>
       </c>
       <c r="B566" t="s">
         <v>11</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="567" spans="1:12">
       <c r="A567" s="1">
-        <v>3778</v>
+        <v>647</v>
       </c>
       <c r="B567" t="s">
         <v>11</v>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="568" spans="1:12">
       <c r="A568" s="1">
-        <v>3778</v>
+        <v>647</v>
       </c>
       <c r="B568" t="s">
         <v>11</v>
@@ -22449,7 +22449,7 @@
     </row>
     <row r="569" spans="1:12">
       <c r="A569" s="1">
-        <v>3779</v>
+        <v>648</v>
       </c>
       <c r="B569" t="s">
         <v>11</v>
@@ -22481,7 +22481,7 @@
     </row>
     <row r="570" spans="1:12">
       <c r="A570" s="1">
-        <v>3779</v>
+        <v>648</v>
       </c>
       <c r="B570" t="s">
         <v>11</v>
@@ -22513,7 +22513,7 @@
     </row>
     <row r="571" spans="1:12">
       <c r="A571" s="1">
-        <v>3779</v>
+        <v>648</v>
       </c>
       <c r="B571" t="s">
         <v>11</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="572" spans="1:12">
       <c r="A572" s="1">
-        <v>3780</v>
+        <v>649</v>
       </c>
       <c r="B572" t="s">
         <v>11</v>
@@ -22577,7 +22577,7 @@
     </row>
     <row r="573" spans="1:12">
       <c r="A573" s="1">
-        <v>3780</v>
+        <v>649</v>
       </c>
       <c r="B573" t="s">
         <v>11</v>
@@ -22609,7 +22609,7 @@
     </row>
     <row r="574" spans="1:12">
       <c r="A574" s="1">
-        <v>3780</v>
+        <v>649</v>
       </c>
       <c r="B574" t="s">
         <v>11</v>
@@ -22641,7 +22641,7 @@
     </row>
     <row r="575" spans="1:12">
       <c r="A575" s="1">
-        <v>3781</v>
+        <v>650</v>
       </c>
       <c r="B575" t="s">
         <v>11</v>
@@ -22670,7 +22670,7 @@
     </row>
     <row r="576" spans="1:12">
       <c r="A576" s="1">
-        <v>3786</v>
+        <v>651</v>
       </c>
       <c r="B576" t="s">
         <v>11</v>
@@ -22699,7 +22699,7 @@
     </row>
     <row r="577" spans="1:11">
       <c r="A577" s="1">
-        <v>3787</v>
+        <v>652</v>
       </c>
       <c r="B577" t="s">
         <v>11</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="578" spans="1:11">
       <c r="A578" s="1">
-        <v>3788</v>
+        <v>653</v>
       </c>
       <c r="B578" t="s">
         <v>11</v>
@@ -22757,7 +22757,7 @@
     </row>
     <row r="579" spans="1:11">
       <c r="A579" s="1">
-        <v>3789</v>
+        <v>654</v>
       </c>
       <c r="B579" t="s">
         <v>11</v>
@@ -22786,7 +22786,7 @@
     </row>
     <row r="580" spans="1:11">
       <c r="A580" s="1">
-        <v>3790</v>
+        <v>655</v>
       </c>
       <c r="B580" t="s">
         <v>11</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="581" spans="1:11">
       <c r="A581" s="1">
-        <v>3791</v>
+        <v>656</v>
       </c>
       <c r="B581" t="s">
         <v>11</v>
@@ -22844,7 +22844,7 @@
     </row>
     <row r="582" spans="1:11">
       <c r="A582" s="1">
-        <v>3792</v>
+        <v>657</v>
       </c>
       <c r="B582" t="s">
         <v>11</v>
@@ -22873,7 +22873,7 @@
     </row>
     <row r="583" spans="1:11">
       <c r="A583" s="1">
-        <v>3793</v>
+        <v>658</v>
       </c>
       <c r="B583" t="s">
         <v>11</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="584" spans="1:11">
       <c r="A584" s="1">
-        <v>3794</v>
+        <v>659</v>
       </c>
       <c r="B584" t="s">
         <v>11</v>
@@ -22931,7 +22931,7 @@
     </row>
     <row r="585" spans="1:11">
       <c r="A585" s="1">
-        <v>3795</v>
+        <v>660</v>
       </c>
       <c r="B585" t="s">
         <v>11</v>
@@ -22960,7 +22960,7 @@
     </row>
     <row r="586" spans="1:11">
       <c r="A586" s="1">
-        <v>3796</v>
+        <v>661</v>
       </c>
       <c r="B586" t="s">
         <v>11</v>
@@ -22989,7 +22989,7 @@
     </row>
     <row r="587" spans="1:11">
       <c r="A587" s="1">
-        <v>3797</v>
+        <v>662</v>
       </c>
       <c r="B587" t="s">
         <v>11</v>
@@ -23018,7 +23018,7 @@
     </row>
     <row r="588" spans="1:11">
       <c r="A588" s="1">
-        <v>3798</v>
+        <v>663</v>
       </c>
       <c r="B588" t="s">
         <v>11</v>
@@ -23047,7 +23047,7 @@
     </row>
     <row r="589" spans="1:11">
       <c r="A589" s="1">
-        <v>3799</v>
+        <v>664</v>
       </c>
       <c r="B589" t="s">
         <v>11</v>
@@ -23076,7 +23076,7 @@
     </row>
     <row r="590" spans="1:11">
       <c r="A590" s="1">
-        <v>3800</v>
+        <v>665</v>
       </c>
       <c r="B590" t="s">
         <v>11</v>
@@ -23105,7 +23105,7 @@
     </row>
     <row r="591" spans="1:11">
       <c r="A591" s="1">
-        <v>3826</v>
+        <v>666</v>
       </c>
       <c r="B591" t="s">
         <v>11</v>
@@ -23134,7 +23134,7 @@
     </row>
     <row r="592" spans="1:11">
       <c r="A592" s="1">
-        <v>3827</v>
+        <v>667</v>
       </c>
       <c r="B592" t="s">
         <v>11</v>
@@ -23163,7 +23163,7 @@
     </row>
     <row r="593" spans="1:11">
       <c r="A593" s="1">
-        <v>3898</v>
+        <v>668</v>
       </c>
       <c r="B593" t="s">
         <v>11</v>
@@ -23192,7 +23192,7 @@
     </row>
     <row r="594" spans="1:11">
       <c r="A594" s="1">
-        <v>3923</v>
+        <v>669</v>
       </c>
       <c r="B594" t="s">
         <v>11</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="595" spans="1:11">
       <c r="A595" s="1">
-        <v>3925</v>
+        <v>671</v>
       </c>
       <c r="B595" t="s">
         <v>11</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="596" spans="1:11">
       <c r="A596" s="1">
-        <v>3927</v>
+        <v>673</v>
       </c>
       <c r="B596" t="s">
         <v>11</v>
@@ -23279,7 +23279,7 @@
     </row>
     <row r="597" spans="1:11">
       <c r="A597" s="1">
-        <v>3929</v>
+        <v>675</v>
       </c>
       <c r="B597" t="s">
         <v>11</v>
@@ -23308,7 +23308,7 @@
     </row>
     <row r="598" spans="1:11">
       <c r="A598" s="1">
-        <v>3931</v>
+        <v>677</v>
       </c>
       <c r="B598" t="s">
         <v>11</v>
@@ -23337,7 +23337,7 @@
     </row>
     <row r="599" spans="1:11">
       <c r="A599" s="1">
-        <v>3933</v>
+        <v>679</v>
       </c>
       <c r="B599" t="s">
         <v>11</v>
@@ -23366,7 +23366,7 @@
     </row>
     <row r="600" spans="1:11">
       <c r="A600" s="1">
-        <v>3935</v>
+        <v>681</v>
       </c>
       <c r="B600" t="s">
         <v>11</v>
@@ -23395,7 +23395,7 @@
     </row>
     <row r="601" spans="1:11">
       <c r="A601" s="1">
-        <v>3937</v>
+        <v>683</v>
       </c>
       <c r="B601" t="s">
         <v>11</v>
@@ -23424,7 +23424,7 @@
     </row>
     <row r="602" spans="1:11">
       <c r="A602" s="1">
-        <v>3939</v>
+        <v>685</v>
       </c>
       <c r="B602" t="s">
         <v>11</v>
@@ -23453,7 +23453,7 @@
     </row>
     <row r="603" spans="1:11">
       <c r="A603" s="1">
-        <v>3941</v>
+        <v>687</v>
       </c>
       <c r="B603" t="s">
         <v>11</v>
@@ -23482,7 +23482,7 @@
     </row>
     <row r="604" spans="1:11">
       <c r="A604" s="1">
-        <v>3943</v>
+        <v>689</v>
       </c>
       <c r="B604" t="s">
         <v>11</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="605" spans="1:11">
       <c r="A605" s="1">
-        <v>3945</v>
+        <v>691</v>
       </c>
       <c r="B605" t="s">
         <v>11</v>
@@ -23540,7 +23540,7 @@
     </row>
     <row r="606" spans="1:11">
       <c r="A606" s="1">
-        <v>3947</v>
+        <v>693</v>
       </c>
       <c r="B606" t="s">
         <v>11</v>
@@ -23569,7 +23569,7 @@
     </row>
     <row r="607" spans="1:11">
       <c r="A607" s="1">
-        <v>3949</v>
+        <v>695</v>
       </c>
       <c r="B607" t="s">
         <v>11</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="608" spans="1:11">
       <c r="A608" s="1">
-        <v>3951</v>
+        <v>697</v>
       </c>
       <c r="B608" t="s">
         <v>11</v>
@@ -23627,7 +23627,7 @@
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="1">
-        <v>3953</v>
+        <v>699</v>
       </c>
       <c r="B609" t="s">
         <v>11</v>
@@ -23656,7 +23656,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="A610" s="1">
-        <v>3955</v>
+        <v>701</v>
       </c>
       <c r="B610" t="s">
         <v>11</v>
@@ -23685,7 +23685,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="1">
-        <v>3957</v>
+        <v>703</v>
       </c>
       <c r="B611" t="s">
         <v>11</v>
@@ -23714,7 +23714,7 @@
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="1">
-        <v>3958</v>
+        <v>704</v>
       </c>
       <c r="B612" t="s">
         <v>11</v>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="1">
-        <v>3959</v>
+        <v>705</v>
       </c>
       <c r="B613" t="s">
         <v>11</v>
@@ -23772,7 +23772,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="1">
-        <v>3960</v>
+        <v>706</v>
       </c>
       <c r="B614" t="s">
         <v>11</v>
@@ -23801,7 +23801,7 @@
     </row>
     <row r="615" spans="1:12">
       <c r="A615" s="1">
-        <v>3961</v>
+        <v>707</v>
       </c>
       <c r="B615" t="s">
         <v>11</v>
@@ -23830,7 +23830,7 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="1">
-        <v>3962</v>
+        <v>708</v>
       </c>
       <c r="B616" t="s">
         <v>11</v>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="1">
-        <v>3963</v>
+        <v>709</v>
       </c>
       <c r="B617" t="s">
         <v>11</v>
@@ -23888,7 +23888,7 @@
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="1">
-        <v>3964</v>
+        <v>710</v>
       </c>
       <c r="B618" t="s">
         <v>11</v>
@@ -23917,7 +23917,7 @@
     </row>
     <row r="619" spans="1:12">
       <c r="A619" s="1">
-        <v>3965</v>
+        <v>711</v>
       </c>
       <c r="B619" t="s">
         <v>11</v>
@@ -23946,7 +23946,7 @@
     </row>
     <row r="620" spans="1:12">
       <c r="A620" s="1">
-        <v>3966</v>
+        <v>712</v>
       </c>
       <c r="B620" t="s">
         <v>11</v>
@@ -23975,7 +23975,7 @@
     </row>
     <row r="621" spans="1:12">
       <c r="A621" s="1">
-        <v>3967</v>
+        <v>713</v>
       </c>
       <c r="B621" t="s">
         <v>11</v>
@@ -24004,7 +24004,7 @@
     </row>
     <row r="622" spans="1:12">
       <c r="A622" s="1">
-        <v>3968</v>
+        <v>714</v>
       </c>
       <c r="B622" t="s">
         <v>11</v>
@@ -24033,7 +24033,7 @@
     </row>
     <row r="623" spans="1:12">
       <c r="A623" s="1">
-        <v>4014</v>
+        <v>715</v>
       </c>
       <c r="B623" t="s">
         <v>11</v>
@@ -24065,7 +24065,7 @@
     </row>
     <row r="624" spans="1:12">
       <c r="A624" s="1">
-        <v>4025</v>
+        <v>725</v>
       </c>
       <c r="B624" t="s">
         <v>11</v>
@@ -24094,7 +24094,7 @@
     </row>
     <row r="625" spans="1:12">
       <c r="A625" s="1">
-        <v>4026</v>
+        <v>726</v>
       </c>
       <c r="B625" t="s">
         <v>11</v>
@@ -24123,7 +24123,7 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="1">
-        <v>4030</v>
+        <v>727</v>
       </c>
       <c r="B626" t="s">
         <v>11</v>
@@ -24152,7 +24152,7 @@
     </row>
     <row r="627" spans="1:12">
       <c r="A627" s="1">
-        <v>4031</v>
+        <v>728</v>
       </c>
       <c r="B627" t="s">
         <v>11</v>
@@ -24181,7 +24181,7 @@
     </row>
     <row r="628" spans="1:12">
       <c r="A628" s="1">
-        <v>4033</v>
+        <v>729</v>
       </c>
       <c r="B628" t="s">
         <v>11</v>
@@ -24213,7 +24213,7 @@
     </row>
     <row r="629" spans="1:12">
       <c r="A629" s="1">
-        <v>4034</v>
+        <v>730</v>
       </c>
       <c r="B629" t="s">
         <v>11</v>
@@ -24245,7 +24245,7 @@
     </row>
     <row r="630" spans="1:12">
       <c r="A630" s="1">
-        <v>4122</v>
+        <v>731</v>
       </c>
       <c r="B630" t="s">
         <v>11</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="631" spans="1:12">
       <c r="A631" s="1">
-        <v>4123</v>
+        <v>732</v>
       </c>
       <c r="B631" t="s">
         <v>11</v>
@@ -24309,7 +24309,7 @@
     </row>
     <row r="632" spans="1:12">
       <c r="A632" s="1">
-        <v>4124</v>
+        <v>733</v>
       </c>
       <c r="B632" t="s">
         <v>11</v>
@@ -24341,7 +24341,7 @@
     </row>
     <row r="633" spans="1:12">
       <c r="A633" s="1">
-        <v>4125</v>
+        <v>734</v>
       </c>
       <c r="B633" t="s">
         <v>11</v>
@@ -24373,7 +24373,7 @@
     </row>
     <row r="634" spans="1:12">
       <c r="A634" s="1">
-        <v>4126</v>
+        <v>735</v>
       </c>
       <c r="B634" t="s">
         <v>11</v>
@@ -24405,7 +24405,7 @@
     </row>
     <row r="635" spans="1:12">
       <c r="A635" s="1">
-        <v>4127</v>
+        <v>736</v>
       </c>
       <c r="B635" t="s">
         <v>11</v>
@@ -24437,7 +24437,7 @@
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="1">
-        <v>4131</v>
+        <v>737</v>
       </c>
       <c r="B636" t="s">
         <v>11</v>
@@ -24466,7 +24466,7 @@
     </row>
     <row r="637" spans="1:12">
       <c r="A637" s="1">
-        <v>4132</v>
+        <v>738</v>
       </c>
       <c r="B637" t="s">
         <v>11</v>
@@ -24495,7 +24495,7 @@
     </row>
     <row r="638" spans="1:12">
       <c r="A638" s="1">
-        <v>4133</v>
+        <v>739</v>
       </c>
       <c r="B638" t="s">
         <v>11</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="639" spans="1:12">
       <c r="A639" s="1">
-        <v>4159</v>
+        <v>740</v>
       </c>
       <c r="B639" t="s">
         <v>11</v>
@@ -24556,7 +24556,7 @@
     </row>
     <row r="640" spans="1:12">
       <c r="A640" s="1">
-        <v>4159</v>
+        <v>740</v>
       </c>
       <c r="B640" t="s">
         <v>11</v>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="641" spans="1:12">
       <c r="A641" s="1">
-        <v>4159</v>
+        <v>740</v>
       </c>
       <c r="B641" t="s">
         <v>11</v>
@@ -24620,7 +24620,7 @@
     </row>
     <row r="642" spans="1:12">
       <c r="A642" s="1">
-        <v>4160</v>
+        <v>741</v>
       </c>
       <c r="B642" t="s">
         <v>11</v>
@@ -24652,7 +24652,7 @@
     </row>
     <row r="643" spans="1:12">
       <c r="A643" s="1">
-        <v>4160</v>
+        <v>741</v>
       </c>
       <c r="B643" t="s">
         <v>11</v>
@@ -24684,7 +24684,7 @@
     </row>
     <row r="644" spans="1:12">
       <c r="A644" s="1">
-        <v>4160</v>
+        <v>741</v>
       </c>
       <c r="B644" t="s">
         <v>11</v>
@@ -24716,7 +24716,7 @@
     </row>
     <row r="645" spans="1:12">
       <c r="A645" s="1">
-        <v>4166</v>
+        <v>742</v>
       </c>
       <c r="B645" t="s">
         <v>11</v>
@@ -24748,7 +24748,7 @@
     </row>
     <row r="646" spans="1:12">
       <c r="A646" s="1">
-        <v>4166</v>
+        <v>742</v>
       </c>
       <c r="B646" t="s">
         <v>11</v>
@@ -24780,7 +24780,7 @@
     </row>
     <row r="647" spans="1:12">
       <c r="A647" s="1">
-        <v>4166</v>
+        <v>742</v>
       </c>
       <c r="B647" t="s">
         <v>11</v>
@@ -24812,7 +24812,7 @@
     </row>
     <row r="648" spans="1:12">
       <c r="A648" s="1">
-        <v>4167</v>
+        <v>743</v>
       </c>
       <c r="B648" t="s">
         <v>11</v>
@@ -24844,7 +24844,7 @@
     </row>
     <row r="649" spans="1:12">
       <c r="A649" s="1">
-        <v>4168</v>
+        <v>744</v>
       </c>
       <c r="B649" t="s">
         <v>11</v>
@@ -24873,7 +24873,7 @@
     </row>
     <row r="650" spans="1:12">
       <c r="A650" s="1">
-        <v>4172</v>
+        <v>745</v>
       </c>
       <c r="B650" t="s">
         <v>11</v>
@@ -24905,7 +24905,7 @@
     </row>
     <row r="651" spans="1:12">
       <c r="A651" s="1">
-        <v>4173</v>
+        <v>746</v>
       </c>
       <c r="B651" t="s">
         <v>11</v>
@@ -24931,7 +24931,7 @@
     </row>
     <row r="652" spans="1:12">
       <c r="A652" s="1">
-        <v>4189</v>
+        <v>750</v>
       </c>
       <c r="B652" t="s">
         <v>11</v>
@@ -24960,7 +24960,7 @@
     </row>
     <row r="653" spans="1:12">
       <c r="A653" s="1">
-        <v>4190</v>
+        <v>751</v>
       </c>
       <c r="B653" t="s">
         <v>11</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="654" spans="1:12">
       <c r="A654" s="1">
-        <v>4192</v>
+        <v>752</v>
       </c>
       <c r="B654" t="s">
         <v>11</v>
@@ -25021,7 +25021,7 @@
     </row>
     <row r="655" spans="1:12">
       <c r="A655" s="1">
-        <v>4193</v>
+        <v>753</v>
       </c>
       <c r="B655" t="s">
         <v>11</v>
@@ -25050,7 +25050,7 @@
     </row>
     <row r="656" spans="1:12">
       <c r="A656" s="1">
-        <v>4194</v>
+        <v>754</v>
       </c>
       <c r="B656" t="s">
         <v>11</v>
@@ -25079,7 +25079,7 @@
     </row>
     <row r="657" spans="1:11">
       <c r="A657" s="1">
-        <v>4195</v>
+        <v>755</v>
       </c>
       <c r="B657" t="s">
         <v>11</v>
@@ -25108,7 +25108,7 @@
     </row>
     <row r="658" spans="1:11">
       <c r="A658" s="1">
-        <v>4196</v>
+        <v>756</v>
       </c>
       <c r="B658" t="s">
         <v>11</v>
@@ -25137,7 +25137,7 @@
     </row>
     <row r="659" spans="1:11">
       <c r="A659" s="1">
-        <v>4197</v>
+        <v>757</v>
       </c>
       <c r="B659" t="s">
         <v>11</v>
@@ -25166,7 +25166,7 @@
     </row>
     <row r="660" spans="1:11">
       <c r="A660" s="1">
-        <v>4198</v>
+        <v>758</v>
       </c>
       <c r="B660" t="s">
         <v>11</v>
@@ -25195,7 +25195,7 @@
     </row>
     <row r="661" spans="1:11">
       <c r="A661" s="1">
-        <v>4199</v>
+        <v>759</v>
       </c>
       <c r="B661" t="s">
         <v>11</v>
@@ -25224,7 +25224,7 @@
     </row>
     <row r="662" spans="1:11">
       <c r="A662" s="1">
-        <v>4200</v>
+        <v>760</v>
       </c>
       <c r="B662" t="s">
         <v>11</v>
@@ -25253,7 +25253,7 @@
     </row>
     <row r="663" spans="1:11">
       <c r="A663" s="1">
-        <v>4201</v>
+        <v>761</v>
       </c>
       <c r="B663" t="s">
         <v>11</v>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="664" spans="1:11">
       <c r="A664" s="1">
-        <v>4202</v>
+        <v>762</v>
       </c>
       <c r="B664" t="s">
         <v>11</v>
@@ -25311,7 +25311,7 @@
     </row>
     <row r="665" spans="1:11">
       <c r="A665" s="1">
-        <v>4203</v>
+        <v>763</v>
       </c>
       <c r="B665" t="s">
         <v>11</v>
@@ -25340,7 +25340,7 @@
     </row>
     <row r="666" spans="1:11">
       <c r="A666" s="1">
-        <v>4204</v>
+        <v>764</v>
       </c>
       <c r="B666" t="s">
         <v>11</v>

--- a/2차_가공/한국과학기술원 22년 1학기 2차 가공 완료.xlsx
+++ b/2차_가공/한국과학기술원 22년 1학기 2차 가공 완료.xlsx
@@ -5098,7 +5098,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
@@ -6373,7 +6373,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
@@ -6460,7 +6460,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
@@ -6576,7 +6576,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -7021,7 +7021,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -7629,7 +7629,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -7914,7 +7914,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
@@ -9036,7 +9036,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
@@ -9068,7 +9068,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
@@ -9100,7 +9100,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -9475,7 +9475,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -9536,7 +9536,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
@@ -9818,7 +9818,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
@@ -10126,7 +10126,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
@@ -10190,7 +10190,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -10254,7 +10254,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
@@ -10286,7 +10286,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
@@ -10318,7 +10318,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
@@ -10536,7 +10536,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
@@ -10568,7 +10568,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
@@ -10693,7 +10693,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
@@ -10757,7 +10757,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
@@ -10882,7 +10882,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
@@ -11001,7 +11001,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="1">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
@@ -11033,7 +11033,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="1">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -11065,7 +11065,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="1">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
@@ -11123,7 +11123,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="1">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="1">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="1">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>11</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="1">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>11</v>
@@ -11277,7 +11277,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="1">
-        <v>279</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>11</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="1">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="1">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>11</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="1">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="1">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="1">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="1">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
@@ -11498,7 +11498,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="1">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="1">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
@@ -11562,7 +11562,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="1">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
@@ -11594,7 +11594,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="1">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="1">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="1">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="1">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
@@ -11722,7 +11722,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="1">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="1">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="1">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="1">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="1">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="1">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="1">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="1">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="1">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="1">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="1">
-        <v>303</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="1">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="1">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
@@ -12105,7 +12105,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="1">
-        <v>306</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="1">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="1">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="1">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="1">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="1">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="1">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
@@ -12308,7 +12308,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="1">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="1">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="1">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>11</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="1">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="1">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>11</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="1">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>11</v>
@@ -12482,7 +12482,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="1">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>11</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="1">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>11</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="1">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>11</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="1">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="1">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>11</v>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="1">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>11</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="1">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="1">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>11</v>
@@ -12714,7 +12714,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="1">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>11</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="1">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>11</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="1">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>11</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="1">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -12830,7 +12830,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="1">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>11</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="1">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>11</v>
@@ -12888,7 +12888,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="1">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>11</v>
@@ -12917,7 +12917,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="1">
-        <v>334</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
@@ -12949,7 +12949,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="1">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>11</v>
@@ -12981,7 +12981,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="1">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>11</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="1">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>11</v>
@@ -13045,7 +13045,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="1">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="1">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>11</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="1">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>11</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="1">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>11</v>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="1">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>11</v>
@@ -13187,7 +13187,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="1">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>11</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="1">
-        <v>344</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>11</v>
@@ -13248,7 +13248,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="1">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>11</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="1">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>11</v>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="1">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>11</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="1">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>11</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="1">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>11</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="1">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>11</v>
@@ -13422,7 +13422,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="1">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>11</v>
@@ -13451,7 +13451,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="1">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>11</v>
@@ -13480,7 +13480,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="1">
-        <v>355</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>11</v>
@@ -13509,7 +13509,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="1">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="1">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>11</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="1">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>11</v>
@@ -13596,7 +13596,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="1">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>11</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="1">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>11</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="1">
-        <v>361</v>
+        <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>11</v>
@@ -13683,7 +13683,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="1">
-        <v>362</v>
+        <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>11</v>
@@ -13712,7 +13712,7 @@
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="1">
-        <v>363</v>
+        <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>11</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="1">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="1">
-        <v>365</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>11</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="1">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>11</v>
@@ -13828,7 +13828,7 @@
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="1">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>11</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="1">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>11</v>
@@ -13886,7 +13886,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="1">
-        <v>369</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>11</v>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="1">
-        <v>370</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>11</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="1">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>11</v>
@@ -13973,7 +13973,7 @@
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="1">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>11</v>
@@ -14005,7 +14005,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="1">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>11</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="1">
-        <v>373</v>
+        <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>11</v>
@@ -14069,7 +14069,7 @@
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="1">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>11</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="1">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>11</v>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="1">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>11</v>
@@ -14162,7 +14162,7 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="1">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>11</v>
@@ -14194,7 +14194,7 @@
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="1">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>11</v>
@@ -14226,7 +14226,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="1">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>11</v>
@@ -14258,7 +14258,7 @@
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="1">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
@@ -14287,7 +14287,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="1">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>11</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="1">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>11</v>
@@ -14351,7 +14351,7 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="1">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>11</v>
@@ -14383,7 +14383,7 @@
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="1">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>11</v>
@@ -14415,7 +14415,7 @@
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="1">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>11</v>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="1">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>11</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="1">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>11</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="1">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>11</v>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="1">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -14563,7 +14563,7 @@
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="1">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>11</v>
@@ -14595,7 +14595,7 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="1">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>11</v>
@@ -14627,7 +14627,7 @@
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="1">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>11</v>
@@ -14656,7 +14656,7 @@
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="1">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>11</v>
@@ -14685,7 +14685,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="1">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>11</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="1">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>11</v>
@@ -14743,7 +14743,7 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="1">
-        <v>396</v>
+        <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>11</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="1">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>11</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="1">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>11</v>
@@ -14830,7 +14830,7 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="1">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>11</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="1">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>11</v>
@@ -14888,7 +14888,7 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="1">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>11</v>
@@ -14920,7 +14920,7 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="1">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>11</v>
@@ -14949,7 +14949,7 @@
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="1">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>11</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="1">
-        <v>404</v>
+        <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>11</v>
@@ -15010,7 +15010,7 @@
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="1">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>11</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="1">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>11</v>
@@ -15068,7 +15068,7 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="1">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>11</v>
@@ -15097,7 +15097,7 @@
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="1">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>11</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="1">
-        <v>409</v>
+        <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>11</v>
@@ -15161,7 +15161,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="1">
-        <v>410</v>
+        <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>11</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="1">
-        <v>411</v>
+        <v>333</v>
       </c>
       <c r="B334" t="s">
         <v>11</v>
@@ -15222,7 +15222,7 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="1">
-        <v>412</v>
+        <v>334</v>
       </c>
       <c r="B335" t="s">
         <v>11</v>
@@ -15251,7 +15251,7 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="1">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="B336" t="s">
         <v>11</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="1">
-        <v>414</v>
+        <v>336</v>
       </c>
       <c r="B337" t="s">
         <v>11</v>
@@ -15312,7 +15312,7 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="1">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="B338" t="s">
         <v>11</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="1">
-        <v>414</v>
+        <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>11</v>
@@ -15376,7 +15376,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="1">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="B340" t="s">
         <v>11</v>
@@ -15408,7 +15408,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="1">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="B341" t="s">
         <v>11</v>
@@ -15440,7 +15440,7 @@
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="1">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>11</v>
@@ -15472,7 +15472,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="1">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="B343" t="s">
         <v>11</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="1">
-        <v>417</v>
+        <v>343</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="1">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="B345" t="s">
         <v>11</v>
@@ -15565,7 +15565,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="1">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="B346" t="s">
         <v>11</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="1">
-        <v>420</v>
+        <v>346</v>
       </c>
       <c r="B347" t="s">
         <v>11</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="1">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="B348" t="s">
         <v>11</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="1">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="B349" t="s">
         <v>11</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="1">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="B350" t="s">
         <v>11</v>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="1">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>11</v>
@@ -15745,7 +15745,7 @@
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="1">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>11</v>
@@ -15777,7 +15777,7 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="1">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="B353" t="s">
         <v>11</v>
@@ -15809,7 +15809,7 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="1">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="B354" t="s">
         <v>11</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="1">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="B355" t="s">
         <v>11</v>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="1">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="B356" t="s">
         <v>11</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="1">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="B357" t="s">
         <v>11</v>
@@ -15937,7 +15937,7 @@
     </row>
     <row r="358" spans="1:12">
       <c r="A358" s="1">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="B358" t="s">
         <v>11</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="1">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="B359" t="s">
         <v>11</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="1">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="B360" t="s">
         <v>11</v>
@@ -16030,7 +16030,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="1">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="B361" t="s">
         <v>11</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="1">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B362" t="s">
         <v>11</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="1">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="B363" t="s">
         <v>11</v>
@@ -16126,7 +16126,7 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="1">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="B364" t="s">
         <v>11</v>
@@ -16158,7 +16158,7 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="1">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="B365" t="s">
         <v>11</v>
@@ -16187,7 +16187,7 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="B366" t="s">
         <v>11</v>
@@ -16219,7 +16219,7 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="B367" t="s">
         <v>11</v>
@@ -16251,7 +16251,7 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="1">
-        <v>448</v>
+        <v>367</v>
       </c>
       <c r="B368" t="s">
         <v>11</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="1">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="B369" t="s">
         <v>11</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="1">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
         <v>11</v>
@@ -16347,7 +16347,7 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="1">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="B371" t="s">
         <v>11</v>
@@ -16379,7 +16379,7 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="1">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="B372" t="s">
         <v>11</v>
@@ -16411,7 +16411,7 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="1">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="B373" t="s">
         <v>11</v>
@@ -16443,7 +16443,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="1">
-        <v>454</v>
+        <v>373</v>
       </c>
       <c r="B374" t="s">
         <v>11</v>
@@ -16475,7 +16475,7 @@
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="1">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="B375" t="s">
         <v>11</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="1">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="B376" t="s">
         <v>11</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="1">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="B377" t="s">
         <v>11</v>
@@ -16571,7 +16571,7 @@
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="1">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="B378" t="s">
         <v>11</v>
@@ -16603,7 +16603,7 @@
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="1">
-        <v>462</v>
+        <v>378</v>
       </c>
       <c r="B379" t="s">
         <v>11</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="1">
-        <v>463</v>
+        <v>379</v>
       </c>
       <c r="B380" t="s">
         <v>11</v>
@@ -16667,7 +16667,7 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="1">
-        <v>465</v>
+        <v>380</v>
       </c>
       <c r="B381" t="s">
         <v>11</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="1">
-        <v>466</v>
+        <v>381</v>
       </c>
       <c r="B382" t="s">
         <v>11</v>
@@ -16731,7 +16731,7 @@
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="1">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="B383" t="s">
         <v>11</v>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="1">
-        <v>468</v>
+        <v>383</v>
       </c>
       <c r="B384" t="s">
         <v>11</v>
@@ -16795,7 +16795,7 @@
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="1">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="B385" t="s">
         <v>11</v>
@@ -16827,7 +16827,7 @@
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="1">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="B386" t="s">
         <v>11</v>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="1">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="B387" t="s">
         <v>11</v>
@@ -16891,7 +16891,7 @@
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="1">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="B388" t="s">
         <v>11</v>
@@ -16923,7 +16923,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="1">
-        <v>473</v>
+        <v>388</v>
       </c>
       <c r="B389" t="s">
         <v>11</v>
@@ -16955,7 +16955,7 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="1">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="B390" t="s">
         <v>11</v>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="1">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="B391" t="s">
         <v>11</v>
@@ -17019,7 +17019,7 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="1">
-        <v>476</v>
+        <v>391</v>
       </c>
       <c r="B392" t="s">
         <v>11</v>
@@ -17051,7 +17051,7 @@
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="1">
-        <v>477</v>
+        <v>392</v>
       </c>
       <c r="B393" t="s">
         <v>11</v>
@@ -17083,7 +17083,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="1">
-        <v>478</v>
+        <v>393</v>
       </c>
       <c r="B394" t="s">
         <v>11</v>
@@ -17115,7 +17115,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="1">
-        <v>479</v>
+        <v>394</v>
       </c>
       <c r="B395" t="s">
         <v>11</v>
@@ -17147,7 +17147,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="1">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="B396" t="s">
         <v>11</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="1">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="B397" t="s">
         <v>11</v>
@@ -17211,7 +17211,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="1">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="B398" t="s">
         <v>11</v>
@@ -17243,7 +17243,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="1">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="B399" t="s">
         <v>11</v>
@@ -17275,7 +17275,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="1">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="B400" t="s">
         <v>11</v>
@@ -17307,7 +17307,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="1">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="B401" t="s">
         <v>11</v>
@@ -17339,7 +17339,7 @@
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="1">
-        <v>486</v>
+        <v>401</v>
       </c>
       <c r="B402" t="s">
         <v>11</v>
@@ -17371,7 +17371,7 @@
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="1">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="B403" t="s">
         <v>11</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="1">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="B404" t="s">
         <v>11</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="1">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="B405" t="s">
         <v>11</v>
@@ -17464,7 +17464,7 @@
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="1">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="B406" t="s">
         <v>11</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="1">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="B407" t="s">
         <v>11</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="1">
-        <v>492</v>
+        <v>407</v>
       </c>
       <c r="B408" t="s">
         <v>11</v>
@@ -17560,7 +17560,7 @@
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="1">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="B409" t="s">
         <v>11</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="1">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="B410" t="s">
         <v>11</v>
@@ -17624,7 +17624,7 @@
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="1">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="B411" t="s">
         <v>11</v>
@@ -17656,7 +17656,7 @@
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="1">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="B412" t="s">
         <v>11</v>
@@ -17685,7 +17685,7 @@
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="1">
-        <v>497</v>
+        <v>412</v>
       </c>
       <c r="B413" t="s">
         <v>11</v>
@@ -17717,7 +17717,7 @@
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="1">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="B414" t="s">
         <v>11</v>
@@ -17749,7 +17749,7 @@
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="1">
-        <v>499</v>
+        <v>414</v>
       </c>
       <c r="B415" t="s">
         <v>11</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="1">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="B416" t="s">
         <v>11</v>
@@ -17813,7 +17813,7 @@
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="1">
-        <v>501</v>
+        <v>416</v>
       </c>
       <c r="B417" t="s">
         <v>11</v>
@@ -17845,7 +17845,7 @@
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="1">
-        <v>504</v>
+        <v>417</v>
       </c>
       <c r="B418" t="s">
         <v>11</v>
@@ -17877,7 +17877,7 @@
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="1">
-        <v>505</v>
+        <v>418</v>
       </c>
       <c r="B419" t="s">
         <v>11</v>
@@ -17909,7 +17909,7 @@
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="1">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="B420" t="s">
         <v>11</v>
@@ -17941,7 +17941,7 @@
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="1">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="B421" t="s">
         <v>11</v>
@@ -17973,7 +17973,7 @@
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="1">
-        <v>508</v>
+        <v>421</v>
       </c>
       <c r="B422" t="s">
         <v>11</v>
@@ -18005,7 +18005,7 @@
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="1">
-        <v>509</v>
+        <v>422</v>
       </c>
       <c r="B423" t="s">
         <v>11</v>
@@ -18037,7 +18037,7 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="1">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="B424" t="s">
         <v>11</v>
@@ -18069,7 +18069,7 @@
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="1">
-        <v>511</v>
+        <v>424</v>
       </c>
       <c r="B425" t="s">
         <v>11</v>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="1">
-        <v>512</v>
+        <v>425</v>
       </c>
       <c r="B426" t="s">
         <v>11</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="1">
-        <v>513</v>
+        <v>426</v>
       </c>
       <c r="B427" t="s">
         <v>11</v>
@@ -18165,7 +18165,7 @@
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="1">
-        <v>514</v>
+        <v>427</v>
       </c>
       <c r="B428" t="s">
         <v>11</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="1">
-        <v>515</v>
+        <v>428</v>
       </c>
       <c r="B429" t="s">
         <v>11</v>
@@ -18226,7 +18226,7 @@
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="1">
-        <v>516</v>
+        <v>429</v>
       </c>
       <c r="B430" t="s">
         <v>11</v>
@@ -18258,7 +18258,7 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="1">
-        <v>517</v>
+        <v>430</v>
       </c>
       <c r="B431" t="s">
         <v>11</v>
@@ -18290,7 +18290,7 @@
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="1">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="B432" t="s">
         <v>11</v>
@@ -18322,7 +18322,7 @@
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="1">
-        <v>519</v>
+        <v>432</v>
       </c>
       <c r="B433" t="s">
         <v>11</v>
@@ -18354,7 +18354,7 @@
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="1">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="B434" t="s">
         <v>11</v>
@@ -18386,7 +18386,7 @@
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="1">
-        <v>521</v>
+        <v>434</v>
       </c>
       <c r="B435" t="s">
         <v>11</v>
@@ -18418,7 +18418,7 @@
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="1">
-        <v>522</v>
+        <v>435</v>
       </c>
       <c r="B436" t="s">
         <v>11</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="1">
-        <v>523</v>
+        <v>436</v>
       </c>
       <c r="B437" t="s">
         <v>11</v>
@@ -18482,7 +18482,7 @@
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="1">
-        <v>524</v>
+        <v>437</v>
       </c>
       <c r="B438" t="s">
         <v>11</v>
@@ -18511,7 +18511,7 @@
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="1">
-        <v>525</v>
+        <v>438</v>
       </c>
       <c r="B439" t="s">
         <v>11</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="1">
-        <v>526</v>
+        <v>439</v>
       </c>
       <c r="B440" t="s">
         <v>11</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="1">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="B441" t="s">
         <v>11</v>
@@ -18607,7 +18607,7 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="1">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="B442" t="s">
         <v>11</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="1">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="B443" t="s">
         <v>11</v>
@@ -18671,7 +18671,7 @@
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="1">
-        <v>530</v>
+        <v>443</v>
       </c>
       <c r="B444" t="s">
         <v>11</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="1">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="B445" t="s">
         <v>11</v>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="1">
-        <v>532</v>
+        <v>445</v>
       </c>
       <c r="B446" t="s">
         <v>11</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="1">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="B447" t="s">
         <v>11</v>
@@ -18799,7 +18799,7 @@
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="1">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="B448" t="s">
         <v>11</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="1">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="B449" t="s">
         <v>11</v>
@@ -18857,7 +18857,7 @@
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="1">
-        <v>536</v>
+        <v>449</v>
       </c>
       <c r="B450" t="s">
         <v>11</v>
@@ -18886,7 +18886,7 @@
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="1">
-        <v>537</v>
+        <v>450</v>
       </c>
       <c r="B451" t="s">
         <v>11</v>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="1">
-        <v>538</v>
+        <v>451</v>
       </c>
       <c r="B452" t="s">
         <v>11</v>
@@ -18944,7 +18944,7 @@
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="1">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="B453" t="s">
         <v>11</v>
@@ -18976,7 +18976,7 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="1">
-        <v>540</v>
+        <v>453</v>
       </c>
       <c r="B454" t="s">
         <v>11</v>
@@ -19008,7 +19008,7 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="1">
-        <v>541</v>
+        <v>454</v>
       </c>
       <c r="B455" t="s">
         <v>11</v>
@@ -19040,7 +19040,7 @@
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="1">
-        <v>542</v>
+        <v>455</v>
       </c>
       <c r="B456" t="s">
         <v>11</v>
@@ -19069,7 +19069,7 @@
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="1">
-        <v>543</v>
+        <v>456</v>
       </c>
       <c r="B457" t="s">
         <v>11</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="1">
-        <v>544</v>
+        <v>457</v>
       </c>
       <c r="B458" t="s">
         <v>11</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="1">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="B459" t="s">
         <v>11</v>
@@ -19165,7 +19165,7 @@
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="1">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="B460" t="s">
         <v>11</v>
@@ -19197,7 +19197,7 @@
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="1">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="B461" t="s">
         <v>11</v>
@@ -19229,7 +19229,7 @@
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="1">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="B462" t="s">
         <v>11</v>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="1">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="B463" t="s">
         <v>11</v>
@@ -19293,7 +19293,7 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" s="1">
-        <v>550</v>
+        <v>463</v>
       </c>
       <c r="B464" t="s">
         <v>11</v>
@@ -19325,7 +19325,7 @@
     </row>
     <row r="465" spans="1:12">
       <c r="A465" s="1">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="B465" t="s">
         <v>11</v>
@@ -19357,7 +19357,7 @@
     </row>
     <row r="466" spans="1:12">
       <c r="A466" s="1">
-        <v>552</v>
+        <v>465</v>
       </c>
       <c r="B466" t="s">
         <v>11</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="467" spans="1:12">
       <c r="A467" s="1">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="B467" t="s">
         <v>11</v>
@@ -19421,7 +19421,7 @@
     </row>
     <row r="468" spans="1:12">
       <c r="A468" s="1">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="B468" t="s">
         <v>11</v>
@@ -19453,7 +19453,7 @@
     </row>
     <row r="469" spans="1:12">
       <c r="A469" s="1">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="B469" t="s">
         <v>11</v>
@@ -19485,7 +19485,7 @@
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="1">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="B470" t="s">
         <v>11</v>
@@ -19517,7 +19517,7 @@
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="1">
-        <v>557</v>
+        <v>470</v>
       </c>
       <c r="B471" t="s">
         <v>11</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="1">
-        <v>558</v>
+        <v>471</v>
       </c>
       <c r="B472" t="s">
         <v>11</v>
@@ -19581,7 +19581,7 @@
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="1">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="B473" t="s">
         <v>11</v>
@@ -19613,7 +19613,7 @@
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="1">
-        <v>560</v>
+        <v>473</v>
       </c>
       <c r="B474" t="s">
         <v>11</v>
@@ -19645,7 +19645,7 @@
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="1">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="B475" t="s">
         <v>11</v>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="1">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="B476" t="s">
         <v>11</v>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="1">
-        <v>563</v>
+        <v>476</v>
       </c>
       <c r="B477" t="s">
         <v>11</v>
@@ -19741,7 +19741,7 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="1">
-        <v>564</v>
+        <v>477</v>
       </c>
       <c r="B478" t="s">
         <v>11</v>
@@ -19773,7 +19773,7 @@
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="1">
-        <v>565</v>
+        <v>478</v>
       </c>
       <c r="B479" t="s">
         <v>11</v>
@@ -19802,7 +19802,7 @@
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="1">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="B480" t="s">
         <v>11</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="1">
-        <v>567</v>
+        <v>480</v>
       </c>
       <c r="B481" t="s">
         <v>11</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="482" spans="1:12">
       <c r="A482" s="1">
-        <v>568</v>
+        <v>481</v>
       </c>
       <c r="B482" t="s">
         <v>11</v>
@@ -19889,7 +19889,7 @@
     </row>
     <row r="483" spans="1:12">
       <c r="A483" s="1">
-        <v>569</v>
+        <v>482</v>
       </c>
       <c r="B483" t="s">
         <v>11</v>
@@ -19918,7 +19918,7 @@
     </row>
     <row r="484" spans="1:12">
       <c r="A484" s="1">
-        <v>570</v>
+        <v>483</v>
       </c>
       <c r="B484" t="s">
         <v>11</v>
@@ -19950,7 +19950,7 @@
     </row>
     <row r="485" spans="1:12">
       <c r="A485" s="1">
-        <v>571</v>
+        <v>484</v>
       </c>
       <c r="B485" t="s">
         <v>11</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="486" spans="1:12">
       <c r="A486" s="1">
-        <v>572</v>
+        <v>485</v>
       </c>
       <c r="B486" t="s">
         <v>11</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="487" spans="1:12">
       <c r="A487" s="1">
-        <v>572</v>
+        <v>486</v>
       </c>
       <c r="B487" t="s">
         <v>11</v>
@@ -20037,7 +20037,7 @@
     </row>
     <row r="488" spans="1:12">
       <c r="A488" s="1">
-        <v>573</v>
+        <v>487</v>
       </c>
       <c r="B488" t="s">
         <v>11</v>
@@ -20066,7 +20066,7 @@
     </row>
     <row r="489" spans="1:12">
       <c r="A489" s="1">
-        <v>574</v>
+        <v>488</v>
       </c>
       <c r="B489" t="s">
         <v>11</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="490" spans="1:12">
       <c r="A490" s="1">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="B490" t="s">
         <v>11</v>
@@ -20124,7 +20124,7 @@
     </row>
     <row r="491" spans="1:12">
       <c r="A491" s="1">
-        <v>576</v>
+        <v>490</v>
       </c>
       <c r="B491" t="s">
         <v>11</v>
@@ -20153,7 +20153,7 @@
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="1">
-        <v>577</v>
+        <v>491</v>
       </c>
       <c r="B492" t="s">
         <v>11</v>
@@ -20182,7 +20182,7 @@
     </row>
     <row r="493" spans="1:12">
       <c r="A493" s="1">
-        <v>578</v>
+        <v>492</v>
       </c>
       <c r="B493" t="s">
         <v>11</v>
@@ -20214,7 +20214,7 @@
     </row>
     <row r="494" spans="1:12">
       <c r="A494" s="1">
-        <v>579</v>
+        <v>493</v>
       </c>
       <c r="B494" t="s">
         <v>11</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="495" spans="1:12">
       <c r="A495" s="1">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="B495" t="s">
         <v>11</v>
@@ -20272,7 +20272,7 @@
     </row>
     <row r="496" spans="1:12">
       <c r="A496" s="1">
-        <v>581</v>
+        <v>495</v>
       </c>
       <c r="B496" t="s">
         <v>11</v>
@@ -20301,7 +20301,7 @@
     </row>
     <row r="497" spans="1:12">
       <c r="A497" s="1">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="B497" t="s">
         <v>11</v>
@@ -20330,7 +20330,7 @@
     </row>
     <row r="498" spans="1:12">
       <c r="A498" s="1">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="B498" t="s">
         <v>11</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="499" spans="1:12">
       <c r="A499" s="1">
-        <v>584</v>
+        <v>498</v>
       </c>
       <c r="B499" t="s">
         <v>11</v>
@@ -20388,7 +20388,7 @@
     </row>
     <row r="500" spans="1:12">
       <c r="A500" s="1">
-        <v>585</v>
+        <v>499</v>
       </c>
       <c r="B500" t="s">
         <v>11</v>
@@ -20417,7 +20417,7 @@
     </row>
     <row r="501" spans="1:12">
       <c r="A501" s="1">
-        <v>586</v>
+        <v>500</v>
       </c>
       <c r="B501" t="s">
         <v>11</v>
@@ -20449,7 +20449,7 @@
     </row>
     <row r="502" spans="1:12">
       <c r="A502" s="1">
-        <v>587</v>
+        <v>501</v>
       </c>
       <c r="B502" t="s">
         <v>11</v>
@@ -20478,7 +20478,7 @@
     </row>
     <row r="503" spans="1:12">
       <c r="A503" s="1">
-        <v>588</v>
+        <v>502</v>
       </c>
       <c r="B503" t="s">
         <v>11</v>
@@ -20510,7 +20510,7 @@
     </row>
     <row r="504" spans="1:12">
       <c r="A504" s="1">
-        <v>589</v>
+        <v>503</v>
       </c>
       <c r="B504" t="s">
         <v>11</v>
@@ -20542,7 +20542,7 @@
     </row>
     <row r="505" spans="1:12">
       <c r="A505" s="1">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="B505" t="s">
         <v>11</v>
@@ -20574,7 +20574,7 @@
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="1">
-        <v>591</v>
+        <v>505</v>
       </c>
       <c r="B506" t="s">
         <v>11</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="507" spans="1:12">
       <c r="A507" s="1">
-        <v>592</v>
+        <v>506</v>
       </c>
       <c r="B507" t="s">
         <v>11</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row r="508" spans="1:12">
       <c r="A508" s="1">
-        <v>593</v>
+        <v>507</v>
       </c>
       <c r="B508" t="s">
         <v>11</v>
@@ -20670,7 +20670,7 @@
     </row>
     <row r="509" spans="1:12">
       <c r="A509" s="1">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="B509" t="s">
         <v>11</v>
@@ -20702,7 +20702,7 @@
     </row>
     <row r="510" spans="1:12">
       <c r="A510" s="1">
-        <v>595</v>
+        <v>509</v>
       </c>
       <c r="B510" t="s">
         <v>11</v>
@@ -20731,7 +20731,7 @@
     </row>
     <row r="511" spans="1:12">
       <c r="A511" s="1">
-        <v>596</v>
+        <v>510</v>
       </c>
       <c r="B511" t="s">
         <v>11</v>
@@ -20760,7 +20760,7 @@
     </row>
     <row r="512" spans="1:12">
       <c r="A512" s="1">
-        <v>597</v>
+        <v>511</v>
       </c>
       <c r="B512" t="s">
         <v>11</v>
@@ -20789,7 +20789,7 @@
     </row>
     <row r="513" spans="1:12">
       <c r="A513" s="1">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="B513" t="s">
         <v>11</v>
@@ -20818,7 +20818,7 @@
     </row>
     <row r="514" spans="1:12">
       <c r="A514" s="1">
-        <v>599</v>
+        <v>513</v>
       </c>
       <c r="B514" t="s">
         <v>11</v>
@@ -20847,7 +20847,7 @@
     </row>
     <row r="515" spans="1:12">
       <c r="A515" s="1">
-        <v>600</v>
+        <v>514</v>
       </c>
       <c r="B515" t="s">
         <v>11</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="516" spans="1:12">
       <c r="A516" s="1">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="B516" t="s">
         <v>11</v>
@@ -20905,7 +20905,7 @@
     </row>
     <row r="517" spans="1:12">
       <c r="A517" s="1">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="B517" t="s">
         <v>11</v>
@@ -20934,7 +20934,7 @@
     </row>
     <row r="518" spans="1:12">
       <c r="A518" s="1">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="B518" t="s">
         <v>11</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="519" spans="1:12">
       <c r="A519" s="1">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="B519" t="s">
         <v>11</v>
@@ -20992,7 +20992,7 @@
     </row>
     <row r="520" spans="1:12">
       <c r="A520" s="1">
-        <v>605</v>
+        <v>519</v>
       </c>
       <c r="B520" t="s">
         <v>11</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="521" spans="1:12">
       <c r="A521" s="1">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="B521" t="s">
         <v>11</v>
@@ -21050,7 +21050,7 @@
     </row>
     <row r="522" spans="1:12">
       <c r="A522" s="1">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="B522" t="s">
         <v>11</v>
@@ -21079,7 +21079,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="1">
-        <v>608</v>
+        <v>522</v>
       </c>
       <c r="B523" t="s">
         <v>11</v>
@@ -21108,7 +21108,7 @@
     </row>
     <row r="524" spans="1:12">
       <c r="A524" s="1">
-        <v>609</v>
+        <v>523</v>
       </c>
       <c r="B524" t="s">
         <v>11</v>
@@ -21137,7 +21137,7 @@
     </row>
     <row r="525" spans="1:12">
       <c r="A525" s="1">
-        <v>610</v>
+        <v>524</v>
       </c>
       <c r="B525" t="s">
         <v>11</v>
@@ -21166,7 +21166,7 @@
     </row>
     <row r="526" spans="1:12">
       <c r="A526" s="1">
-        <v>611</v>
+        <v>525</v>
       </c>
       <c r="B526" t="s">
         <v>11</v>
@@ -21198,7 +21198,7 @@
     </row>
     <row r="527" spans="1:12">
       <c r="A527" s="1">
-        <v>612</v>
+        <v>526</v>
       </c>
       <c r="B527" t="s">
         <v>11</v>
@@ -21230,7 +21230,7 @@
     </row>
     <row r="528" spans="1:12">
       <c r="A528" s="1">
-        <v>613</v>
+        <v>527</v>
       </c>
       <c r="B528" t="s">
         <v>11</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="529" spans="1:12">
       <c r="A529" s="1">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="B529" t="s">
         <v>11</v>
@@ -21288,7 +21288,7 @@
     </row>
     <row r="530" spans="1:12">
       <c r="A530" s="1">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="B530" t="s">
         <v>11</v>
@@ -21317,7 +21317,7 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="1">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="B531" t="s">
         <v>11</v>
@@ -21349,7 +21349,7 @@
     </row>
     <row r="532" spans="1:12">
       <c r="A532" s="1">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="B532" t="s">
         <v>11</v>
@@ -21378,7 +21378,7 @@
     </row>
     <row r="533" spans="1:12">
       <c r="A533" s="1">
-        <v>618</v>
+        <v>532</v>
       </c>
       <c r="B533" t="s">
         <v>11</v>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="534" spans="1:12">
       <c r="A534" s="1">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="B534" t="s">
         <v>11</v>
@@ -21436,7 +21436,7 @@
     </row>
     <row r="535" spans="1:12">
       <c r="A535" s="1">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="B535" t="s">
         <v>11</v>
@@ -21465,7 +21465,7 @@
     </row>
     <row r="536" spans="1:12">
       <c r="A536" s="1">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="B536" t="s">
         <v>11</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="537" spans="1:12">
       <c r="A537" s="1">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="B537" t="s">
         <v>11</v>
@@ -21523,7 +21523,7 @@
     </row>
     <row r="538" spans="1:12">
       <c r="A538" s="1">
-        <v>623</v>
+        <v>537</v>
       </c>
       <c r="B538" t="s">
         <v>11</v>
@@ -21552,7 +21552,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="1">
-        <v>624</v>
+        <v>538</v>
       </c>
       <c r="B539" t="s">
         <v>11</v>
@@ -21581,7 +21581,7 @@
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="1">
-        <v>625</v>
+        <v>539</v>
       </c>
       <c r="B540" t="s">
         <v>11</v>
@@ -21610,7 +21610,7 @@
     </row>
     <row r="541" spans="1:12">
       <c r="A541" s="1">
-        <v>626</v>
+        <v>540</v>
       </c>
       <c r="B541" t="s">
         <v>11</v>
@@ -21639,7 +21639,7 @@
     </row>
     <row r="542" spans="1:12">
       <c r="A542" s="1">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="B542" t="s">
         <v>11</v>
@@ -21668,7 +21668,7 @@
     </row>
     <row r="543" spans="1:12">
       <c r="A543" s="1">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="B543" t="s">
         <v>11</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="544" spans="1:12">
       <c r="A544" s="1">
-        <v>629</v>
+        <v>543</v>
       </c>
       <c r="B544" t="s">
         <v>11</v>
@@ -21726,7 +21726,7 @@
     </row>
     <row r="545" spans="1:12">
       <c r="A545" s="1">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="B545" t="s">
         <v>11</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="546" spans="1:12">
       <c r="A546" s="1">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="B546" t="s">
         <v>11</v>
@@ -21787,7 +21787,7 @@
     </row>
     <row r="547" spans="1:12">
       <c r="A547" s="1">
-        <v>631</v>
+        <v>546</v>
       </c>
       <c r="B547" t="s">
         <v>11</v>
@@ -21819,7 +21819,7 @@
     </row>
     <row r="548" spans="1:12">
       <c r="A548" s="1">
-        <v>631</v>
+        <v>547</v>
       </c>
       <c r="B548" t="s">
         <v>11</v>
@@ -21851,7 +21851,7 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="1">
-        <v>632</v>
+        <v>548</v>
       </c>
       <c r="B549" t="s">
         <v>11</v>
@@ -21883,7 +21883,7 @@
     </row>
     <row r="550" spans="1:12">
       <c r="A550" s="1">
-        <v>632</v>
+        <v>549</v>
       </c>
       <c r="B550" t="s">
         <v>11</v>
@@ -21915,7 +21915,7 @@
     </row>
     <row r="551" spans="1:12">
       <c r="A551" s="1">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="B551" t="s">
         <v>11</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="552" spans="1:12">
       <c r="A552" s="1">
-        <v>633</v>
+        <v>551</v>
       </c>
       <c r="B552" t="s">
         <v>11</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="553" spans="1:12">
       <c r="A553" s="1">
-        <v>633</v>
+        <v>552</v>
       </c>
       <c r="B553" t="s">
         <v>11</v>
@@ -22011,7 +22011,7 @@
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="1">
-        <v>633</v>
+        <v>553</v>
       </c>
       <c r="B554" t="s">
         <v>11</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" s="1">
-        <v>634</v>
+        <v>554</v>
       </c>
       <c r="B555" t="s">
         <v>11</v>
@@ -22075,7 +22075,7 @@
     </row>
     <row r="556" spans="1:12">
       <c r="A556" s="1">
-        <v>634</v>
+        <v>555</v>
       </c>
       <c r="B556" t="s">
         <v>11</v>
@@ -22107,7 +22107,7 @@
     </row>
     <row r="557" spans="1:12">
       <c r="A557" s="1">
-        <v>634</v>
+        <v>556</v>
       </c>
       <c r="B557" t="s">
         <v>11</v>
@@ -22139,7 +22139,7 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" s="1">
-        <v>635</v>
+        <v>557</v>
       </c>
       <c r="B558" t="s">
         <v>11</v>
@@ -22168,7 +22168,7 @@
     </row>
     <row r="559" spans="1:12">
       <c r="A559" s="1">
-        <v>636</v>
+        <v>558</v>
       </c>
       <c r="B559" t="s">
         <v>11</v>
@@ -22197,7 +22197,7 @@
     </row>
     <row r="560" spans="1:12">
       <c r="A560" s="1">
-        <v>637</v>
+        <v>559</v>
       </c>
       <c r="B560" t="s">
         <v>11</v>
@@ -22229,7 +22229,7 @@
     </row>
     <row r="561" spans="1:12">
       <c r="A561" s="1">
-        <v>638</v>
+        <v>560</v>
       </c>
       <c r="B561" t="s">
         <v>11</v>
@@ -22258,7 +22258,7 @@
     </row>
     <row r="562" spans="1:12">
       <c r="A562" s="1">
-        <v>639</v>
+        <v>561</v>
       </c>
       <c r="B562" t="s">
         <v>11</v>
@@ -22287,7 +22287,7 @@
     </row>
     <row r="563" spans="1:12">
       <c r="A563" s="1">
-        <v>640</v>
+        <v>562</v>
       </c>
       <c r="B563" t="s">
         <v>11</v>
@@ -22316,7 +22316,7 @@
     </row>
     <row r="564" spans="1:12">
       <c r="A564" s="1">
-        <v>641</v>
+        <v>563</v>
       </c>
       <c r="B564" t="s">
         <v>11</v>
@@ -22345,7 +22345,7 @@
     </row>
     <row r="565" spans="1:12">
       <c r="A565" s="1">
-        <v>642</v>
+        <v>564</v>
       </c>
       <c r="B565" t="s">
         <v>11</v>
@@ -22377,7 +22377,7 @@
     </row>
     <row r="566" spans="1:12">
       <c r="A566" s="1">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="B566" t="s">
         <v>11</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="567" spans="1:12">
       <c r="A567" s="1">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="B567" t="s">
         <v>11</v>
@@ -22441,7 +22441,7 @@
     </row>
     <row r="568" spans="1:12">
       <c r="A568" s="1">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="B568" t="s">
         <v>11</v>
@@ -22473,7 +22473,7 @@
     </row>
     <row r="569" spans="1:12">
       <c r="A569" s="1">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="B569" t="s">
         <v>11</v>
@@ -22505,7 +22505,7 @@
     </row>
     <row r="570" spans="1:12">
       <c r="A570" s="1">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="B570" t="s">
         <v>11</v>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="571" spans="1:12">
       <c r="A571" s="1">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="B571" t="s">
         <v>11</v>
@@ -22569,7 +22569,7 @@
     </row>
     <row r="572" spans="1:12">
       <c r="A572" s="1">
-        <v>644</v>
+        <v>571</v>
       </c>
       <c r="B572" t="s">
         <v>11</v>
@@ -22601,7 +22601,7 @@
     </row>
     <row r="573" spans="1:12">
       <c r="A573" s="1">
-        <v>644</v>
+        <v>572</v>
       </c>
       <c r="B573" t="s">
         <v>11</v>
@@ -22633,7 +22633,7 @@
     </row>
     <row r="574" spans="1:12">
       <c r="A574" s="1">
-        <v>645</v>
+        <v>573</v>
       </c>
       <c r="B574" t="s">
         <v>11</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="575" spans="1:12">
       <c r="A575" s="1">
-        <v>646</v>
+        <v>574</v>
       </c>
       <c r="B575" t="s">
         <v>11</v>
@@ -22691,7 +22691,7 @@
     </row>
     <row r="576" spans="1:12">
       <c r="A576" s="1">
-        <v>647</v>
+        <v>575</v>
       </c>
       <c r="B576" t="s">
         <v>11</v>
@@ -22720,7 +22720,7 @@
     </row>
     <row r="577" spans="1:11">
       <c r="A577" s="1">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="B577" t="s">
         <v>11</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="578" spans="1:11">
       <c r="A578" s="1">
-        <v>649</v>
+        <v>577</v>
       </c>
       <c r="B578" t="s">
         <v>11</v>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="579" spans="1:11">
       <c r="A579" s="1">
-        <v>650</v>
+        <v>578</v>
       </c>
       <c r="B579" t="s">
         <v>11</v>
@@ -22807,7 +22807,7 @@
     </row>
     <row r="580" spans="1:11">
       <c r="A580" s="1">
-        <v>651</v>
+        <v>579</v>
       </c>
       <c r="B580" t="s">
         <v>11</v>
@@ -22836,7 +22836,7 @@
     </row>
     <row r="581" spans="1:11">
       <c r="A581" s="1">
-        <v>652</v>
+        <v>580</v>
       </c>
       <c r="B581" t="s">
         <v>11</v>
@@ -22865,7 +22865,7 @@
     </row>
     <row r="582" spans="1:11">
       <c r="A582" s="1">
-        <v>653</v>
+        <v>581</v>
       </c>
       <c r="B582" t="s">
         <v>11</v>
@@ -22894,7 +22894,7 @@
     </row>
     <row r="583" spans="1:11">
       <c r="A583" s="1">
-        <v>654</v>
+        <v>582</v>
       </c>
       <c r="B583" t="s">
         <v>11</v>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="584" spans="1:11">
       <c r="A584" s="1">
-        <v>655</v>
+        <v>583</v>
       </c>
       <c r="B584" t="s">
         <v>11</v>
@@ -22952,7 +22952,7 @@
     </row>
     <row r="585" spans="1:11">
       <c r="A585" s="1">
-        <v>656</v>
+        <v>584</v>
       </c>
       <c r="B585" t="s">
         <v>11</v>
@@ -22981,7 +22981,7 @@
     </row>
     <row r="586" spans="1:11">
       <c r="A586" s="1">
-        <v>657</v>
+        <v>585</v>
       </c>
       <c r="B586" t="s">
         <v>11</v>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="587" spans="1:11">
       <c r="A587" s="1">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="B587" t="s">
         <v>11</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="588" spans="1:11">
       <c r="A588" s="1">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="B588" t="s">
         <v>11</v>
@@ -23068,7 +23068,7 @@
     </row>
     <row r="589" spans="1:11">
       <c r="A589" s="1">
-        <v>660</v>
+        <v>588</v>
       </c>
       <c r="B589" t="s">
         <v>11</v>
@@ -23097,7 +23097,7 @@
     </row>
     <row r="590" spans="1:11">
       <c r="A590" s="1">
-        <v>661</v>
+        <v>589</v>
       </c>
       <c r="B590" t="s">
         <v>11</v>
@@ -23126,7 +23126,7 @@
     </row>
     <row r="591" spans="1:11">
       <c r="A591" s="1">
-        <v>662</v>
+        <v>590</v>
       </c>
       <c r="B591" t="s">
         <v>11</v>
@@ -23155,7 +23155,7 @@
     </row>
     <row r="592" spans="1:11">
       <c r="A592" s="1">
-        <v>663</v>
+        <v>591</v>
       </c>
       <c r="B592" t="s">
         <v>11</v>
@@ -23184,7 +23184,7 @@
     </row>
     <row r="593" spans="1:11">
       <c r="A593" s="1">
-        <v>664</v>
+        <v>592</v>
       </c>
       <c r="B593" t="s">
         <v>11</v>
@@ -23213,7 +23213,7 @@
     </row>
     <row r="594" spans="1:11">
       <c r="A594" s="1">
-        <v>666</v>
+        <v>593</v>
       </c>
       <c r="B594" t="s">
         <v>11</v>
@@ -23242,7 +23242,7 @@
     </row>
     <row r="595" spans="1:11">
       <c r="A595" s="1">
-        <v>668</v>
+        <v>594</v>
       </c>
       <c r="B595" t="s">
         <v>11</v>
@@ -23271,7 +23271,7 @@
     </row>
     <row r="596" spans="1:11">
       <c r="A596" s="1">
-        <v>670</v>
+        <v>595</v>
       </c>
       <c r="B596" t="s">
         <v>11</v>
@@ -23300,7 +23300,7 @@
     </row>
     <row r="597" spans="1:11">
       <c r="A597" s="1">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="B597" t="s">
         <v>11</v>
@@ -23329,7 +23329,7 @@
     </row>
     <row r="598" spans="1:11">
       <c r="A598" s="1">
-        <v>674</v>
+        <v>597</v>
       </c>
       <c r="B598" t="s">
         <v>11</v>
@@ -23358,7 +23358,7 @@
     </row>
     <row r="599" spans="1:11">
       <c r="A599" s="1">
-        <v>676</v>
+        <v>598</v>
       </c>
       <c r="B599" t="s">
         <v>11</v>
@@ -23387,7 +23387,7 @@
     </row>
     <row r="600" spans="1:11">
       <c r="A600" s="1">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="B600" t="s">
         <v>11</v>
@@ -23416,7 +23416,7 @@
     </row>
     <row r="601" spans="1:11">
       <c r="A601" s="1">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="B601" t="s">
         <v>11</v>
@@ -23445,7 +23445,7 @@
     </row>
     <row r="602" spans="1:11">
       <c r="A602" s="1">
-        <v>682</v>
+        <v>601</v>
       </c>
       <c r="B602" t="s">
         <v>11</v>
@@ -23474,7 +23474,7 @@
     </row>
     <row r="603" spans="1:11">
       <c r="A603" s="1">
-        <v>684</v>
+        <v>602</v>
       </c>
       <c r="B603" t="s">
         <v>11</v>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="604" spans="1:11">
       <c r="A604" s="1">
-        <v>686</v>
+        <v>603</v>
       </c>
       <c r="B604" t="s">
         <v>11</v>
@@ -23532,7 +23532,7 @@
     </row>
     <row r="605" spans="1:11">
       <c r="A605" s="1">
-        <v>688</v>
+        <v>604</v>
       </c>
       <c r="B605" t="s">
         <v>11</v>
@@ -23561,7 +23561,7 @@
     </row>
     <row r="606" spans="1:11">
       <c r="A606" s="1">
-        <v>690</v>
+        <v>605</v>
       </c>
       <c r="B606" t="s">
         <v>11</v>
@@ -23590,7 +23590,7 @@
     </row>
     <row r="607" spans="1:11">
       <c r="A607" s="1">
-        <v>692</v>
+        <v>606</v>
       </c>
       <c r="B607" t="s">
         <v>11</v>
@@ -23619,7 +23619,7 @@
     </row>
     <row r="608" spans="1:11">
       <c r="A608" s="1">
-        <v>694</v>
+        <v>607</v>
       </c>
       <c r="B608" t="s">
         <v>11</v>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="1">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="B609" t="s">
         <v>11</v>
@@ -23677,7 +23677,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="A610" s="1">
-        <v>698</v>
+        <v>609</v>
       </c>
       <c r="B610" t="s">
         <v>11</v>
@@ -23706,7 +23706,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="1">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="B611" t="s">
         <v>11</v>
@@ -23735,7 +23735,7 @@
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="1">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="B612" t="s">
         <v>11</v>
@@ -23764,7 +23764,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="1">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="B613" t="s">
         <v>11</v>
@@ -23793,7 +23793,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="1">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="B614" t="s">
         <v>11</v>
@@ -23822,7 +23822,7 @@
     </row>
     <row r="615" spans="1:12">
       <c r="A615" s="1">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="B615" t="s">
         <v>11</v>
@@ -23851,7 +23851,7 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="1">
-        <v>704</v>
+        <v>615</v>
       </c>
       <c r="B616" t="s">
         <v>11</v>
@@ -23880,7 +23880,7 @@
     </row>
     <row r="617" spans="1:12">
       <c r="A617" s="1">
-        <v>705</v>
+        <v>616</v>
       </c>
       <c r="B617" t="s">
         <v>11</v>
@@ -23909,7 +23909,7 @@
     </row>
     <row r="618" spans="1:12">
       <c r="A618" s="1">
-        <v>706</v>
+        <v>617</v>
       </c>
       <c r="B618" t="s">
         <v>11</v>
@@ -23938,7 +23938,7 @@
     </row>
     <row r="619" spans="1:12">
       <c r="A619" s="1">
-        <v>707</v>
+        <v>618</v>
       </c>
       <c r="B619" t="s">
         <v>11</v>
@@ -23967,7 +23967,7 @@
     </row>
     <row r="620" spans="1:12">
       <c r="A620" s="1">
-        <v>708</v>
+        <v>619</v>
       </c>
       <c r="B620" t="s">
         <v>11</v>
@@ -23996,7 +23996,7 @@
     </row>
     <row r="621" spans="1:12">
       <c r="A621" s="1">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="B621" t="s">
         <v>11</v>
@@ -24025,7 +24025,7 @@
     </row>
     <row r="622" spans="1:12">
       <c r="A622" s="1">
-        <v>710</v>
+        <v>621</v>
       </c>
       <c r="B622" t="s">
         <v>11</v>
@@ -24057,7 +24057,7 @@
     </row>
     <row r="623" spans="1:12">
       <c r="A623" s="1">
-        <v>720</v>
+        <v>622</v>
       </c>
       <c r="B623" t="s">
         <v>11</v>
@@ -24086,7 +24086,7 @@
     </row>
     <row r="624" spans="1:12">
       <c r="A624" s="1">
-        <v>721</v>
+        <v>623</v>
       </c>
       <c r="B624" t="s">
         <v>11</v>
@@ -24115,7 +24115,7 @@
     </row>
     <row r="625" spans="1:12">
       <c r="A625" s="1">
-        <v>722</v>
+        <v>624</v>
       </c>
       <c r="B625" t="s">
         <v>11</v>
@@ -24144,7 +24144,7 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="1">
-        <v>723</v>
+        <v>625</v>
       </c>
       <c r="B626" t="s">
         <v>11</v>
@@ -24173,7 +24173,7 @@
     </row>
     <row r="627" spans="1:12">
       <c r="A627" s="1">
-        <v>724</v>
+        <v>626</v>
       </c>
       <c r="B627" t="s">
         <v>11</v>
@@ -24205,7 +24205,7 @@
     </row>
     <row r="628" spans="1:12">
       <c r="A628" s="1">
-        <v>725</v>
+        <v>627</v>
       </c>
       <c r="B628" t="s">
         <v>11</v>
@@ -24237,7 +24237,7 @@
     </row>
     <row r="629" spans="1:12">
       <c r="A629" s="1">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="B629" t="s">
         <v>11</v>
@@ -24269,7 +24269,7 @@
     </row>
     <row r="630" spans="1:12">
       <c r="A630" s="1">
-        <v>727</v>
+        <v>629</v>
       </c>
       <c r="B630" t="s">
         <v>11</v>
@@ -24301,7 +24301,7 @@
     </row>
     <row r="631" spans="1:12">
       <c r="A631" s="1">
-        <v>728</v>
+        <v>630</v>
       </c>
       <c r="B631" t="s">
         <v>11</v>
@@ -24333,7 +24333,7 @@
     </row>
     <row r="632" spans="1:12">
       <c r="A632" s="1">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="B632" t="s">
         <v>11</v>
@@ -24365,7 +24365,7 @@
     </row>
     <row r="633" spans="1:12">
       <c r="A633" s="1">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="B633" t="s">
         <v>11</v>
@@ -24397,7 +24397,7 @@
     </row>
     <row r="634" spans="1:12">
       <c r="A634" s="1">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="B634" t="s">
         <v>11</v>
@@ -24429,7 +24429,7 @@
     </row>
     <row r="635" spans="1:12">
       <c r="A635" s="1">
-        <v>732</v>
+        <v>634</v>
       </c>
       <c r="B635" t="s">
         <v>11</v>
@@ -24458,7 +24458,7 @@
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="1">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="B636" t="s">
         <v>11</v>
@@ -24487,7 +24487,7 @@
     </row>
     <row r="637" spans="1:12">
       <c r="A637" s="1">
-        <v>734</v>
+        <v>636</v>
       </c>
       <c r="B637" t="s">
         <v>11</v>
@@ -24516,7 +24516,7 @@
     </row>
     <row r="638" spans="1:12">
       <c r="A638" s="1">
-        <v>735</v>
+        <v>637</v>
       </c>
       <c r="B638" t="s">
         <v>11</v>
@@ -24548,7 +24548,7 @@
     </row>
     <row r="639" spans="1:12">
       <c r="A639" s="1">
-        <v>735</v>
+        <v>638</v>
       </c>
       <c r="B639" t="s">
         <v>11</v>
@@ -24580,7 +24580,7 @@
     </row>
     <row r="640" spans="1:12">
       <c r="A640" s="1">
-        <v>735</v>
+        <v>639</v>
       </c>
       <c r="B640" t="s">
         <v>11</v>
@@ -24612,7 +24612,7 @@
     </row>
     <row r="641" spans="1:12">
       <c r="A641" s="1">
-        <v>736</v>
+        <v>640</v>
       </c>
       <c r="B641" t="s">
         <v>11</v>
@@ -24644,7 +24644,7 @@
     </row>
     <row r="642" spans="1:12">
       <c r="A642" s="1">
-        <v>736</v>
+        <v>641</v>
       </c>
       <c r="B642" t="s">
         <v>11</v>
@@ -24676,7 +24676,7 @@
     </row>
     <row r="643" spans="1:12">
       <c r="A643" s="1">
-        <v>736</v>
+        <v>642</v>
       </c>
       <c r="B643" t="s">
         <v>11</v>
@@ -24708,7 +24708,7 @@
     </row>
     <row r="644" spans="1:12">
       <c r="A644" s="1">
-        <v>737</v>
+        <v>643</v>
       </c>
       <c r="B644" t="s">
         <v>11</v>
@@ -24740,7 +24740,7 @@
     </row>
     <row r="645" spans="1:12">
       <c r="A645" s="1">
-        <v>737</v>
+        <v>644</v>
       </c>
       <c r="B645" t="s">
         <v>11</v>
@@ -24772,7 +24772,7 @@
     </row>
     <row r="646" spans="1:12">
       <c r="A646" s="1">
-        <v>737</v>
+        <v>645</v>
       </c>
       <c r="B646" t="s">
         <v>11</v>
@@ -24804,7 +24804,7 @@
     </row>
     <row r="647" spans="1:12">
       <c r="A647" s="1">
-        <v>738</v>
+        <v>646</v>
       </c>
       <c r="B647" t="s">
         <v>11</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="648" spans="1:12">
       <c r="A648" s="1">
-        <v>739</v>
+        <v>647</v>
       </c>
       <c r="B648" t="s">
         <v>11</v>
@@ -24865,7 +24865,7 @@
     </row>
     <row r="649" spans="1:12">
       <c r="A649" s="1">
-        <v>740</v>
+        <v>648</v>
       </c>
       <c r="B649" t="s">
         <v>11</v>
@@ -24897,7 +24897,7 @@
     </row>
     <row r="650" spans="1:12">
       <c r="A650" s="1">
-        <v>741</v>
+        <v>649</v>
       </c>
       <c r="B650" t="s">
         <v>11</v>
@@ -24923,7 +24923,7 @@
     </row>
     <row r="651" spans="1:12">
       <c r="A651" s="1">
-        <v>743</v>
+        <v>650</v>
       </c>
       <c r="B651" t="s">
         <v>11</v>
@@ -24952,7 +24952,7 @@
     </row>
     <row r="652" spans="1:12">
       <c r="A652" s="1">
-        <v>744</v>
+        <v>651</v>
       </c>
       <c r="B652" t="s">
         <v>11</v>
@@ -24984,7 +24984,7 @@
     </row>
     <row r="653" spans="1:12">
       <c r="A653" s="1">
-        <v>745</v>
+        <v>652</v>
       </c>
       <c r="B653" t="s">
         <v>11</v>
@@ -25013,7 +25013,7 @@
     </row>
     <row r="654" spans="1:12">
       <c r="A654" s="1">
-        <v>746</v>
+        <v>653</v>
       </c>
       <c r="B654" t="s">
         <v>11</v>
@@ -25042,7 +25042,7 @@
     </row>
     <row r="655" spans="1:12">
       <c r="A655" s="1">
-        <v>747</v>
+        <v>654</v>
       </c>
       <c r="B655" t="s">
         <v>11</v>
@@ -25071,7 +25071,7 @@
     </row>
     <row r="656" spans="1:12">
       <c r="A656" s="1">
-        <v>748</v>
+        <v>655</v>
       </c>
       <c r="B656" t="s">
         <v>11</v>
@@ -25100,7 +25100,7 @@
     </row>
     <row r="657" spans="1:11">
       <c r="A657" s="1">
-        <v>749</v>
+        <v>656</v>
       </c>
       <c r="B657" t="s">
         <v>11</v>
@@ -25129,7 +25129,7 @@
     </row>
     <row r="658" spans="1:11">
       <c r="A658" s="1">
-        <v>750</v>
+        <v>657</v>
       </c>
       <c r="B658" t="s">
         <v>11</v>
@@ -25158,7 +25158,7 @@
     </row>
     <row r="659" spans="1:11">
       <c r="A659" s="1">
-        <v>751</v>
+        <v>658</v>
       </c>
       <c r="B659" t="s">
         <v>11</v>
@@ -25187,7 +25187,7 @@
     </row>
     <row r="660" spans="1:11">
       <c r="A660" s="1">
-        <v>752</v>
+        <v>659</v>
       </c>
       <c r="B660" t="s">
         <v>11</v>
@@ -25216,7 +25216,7 @@
     </row>
     <row r="661" spans="1:11">
       <c r="A661" s="1">
-        <v>753</v>
+        <v>660</v>
       </c>
       <c r="B661" t="s">
         <v>11</v>
@@ -25245,7 +25245,7 @@
     </row>
     <row r="662" spans="1:11">
       <c r="A662" s="1">
-        <v>754</v>
+        <v>661</v>
       </c>
       <c r="B662" t="s">
         <v>11</v>
@@ -25274,7 +25274,7 @@
     </row>
     <row r="663" spans="1:11">
       <c r="A663" s="1">
-        <v>755</v>
+        <v>662</v>
       </c>
       <c r="B663" t="s">
         <v>11</v>
@@ -25303,7 +25303,7 @@
     </row>
     <row r="664" spans="1:11">
       <c r="A664" s="1">
-        <v>756</v>
+        <v>663</v>
       </c>
       <c r="B664" t="s">
         <v>11</v>
@@ -25332,7 +25332,7 @@
     </row>
     <row r="665" spans="1:11">
       <c r="A665" s="1">
-        <v>757</v>
+        <v>664</v>
       </c>
       <c r="B665" t="s">
         <v>11</v>
